--- a/best_draw_output_from_evolutionary.xlsx
+++ b/best_draw_output_from_evolutionary.xlsx
@@ -569,19 +569,54 @@
           <t>17-18</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ability Food-Camera Recently</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Different Our-Everything Color</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Difference Throughout-Drug Condition</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Lot Recent-Production Idea</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Less Determine-Save Over</t>
+          <t>Road Involve-Growth Military</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Issue Together-Record Allow</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Agency Truth-Design Degree</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Maintain South-Short North</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Own No-Play Nature</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Rate Budget-Green Religious</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Different Economy-Easy Exist</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Especially Stuff-State Baby</t>
         </is>
       </c>
     </row>
@@ -591,54 +626,44 @@
           <t>18-19</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Easy Exist-Open First</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Still Race-Region Begin</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Source Laugh-Really Seat</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Attorney Travel-Shake Second</t>
+          <t>Hair Paper-Stock Measure</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Education Hit-Law Employee</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Maintain South-Short North</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Wish Foot-Notice World</t>
+          <t>Also Tax-Half Management</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Night Today-Rate Billion</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>When Less-Region Begin</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Indeed Day-Reveal Today</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Detail Person-Have Full</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Series Recently-Suddenly Inside</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Also Hold-Chair Point</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Within Least-Always Protect</t>
+          <t>Their Development-Reason During</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Yes Other-Attorney Travel</t>
         </is>
       </c>
     </row>
@@ -648,34 +673,44 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Simple Training-Rate Leg</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Condition Way-Sea Administration</t>
+          <t>None Explain-Produce Early</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Agency Truth-Raise Call</t>
+          <t>Big Store-Down Threat</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>System Practice-Sign Learn</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Sure Law-Specific Goal</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Prevent Read-Resource Question</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Arm Nature-Make Later</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Half Pattern-Town Feeling</t>
+          <t>Our Second-Evening Those</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Rate Leg-Suddenly Inside</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Help Amount-Audience Health</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Republican Continue-Difference Throughout</t>
         </is>
       </c>
     </row>
@@ -685,44 +720,39 @@
           <t>20-21</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Good Cup-Kind Blood</t>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Their West-Source Decide</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Letter National-Minute Citizen</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Issue Together-Whom Social</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Two Standard-Anything Yes</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Bag Girl-Concern Herself</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Do Board-Natural Might</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Board American-Reach Set</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Question Finally-Past Factor</t>
+          <t>Company Car-Question Finally</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>At Could-That Leader</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Central Reason-Test Gun</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Ever Material-Top Member</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Bill Minute-Unit Budget</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Seem How-Skill Support</t>
         </is>
       </c>
     </row>
@@ -732,49 +762,39 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Involve Big-Piece Party</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Particular Such-Reason During</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Officer Six-Simple Training</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Company Car-Republican Continue</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Discover Head-Down Threat</t>
+          <t>Condition Way-Sea Administration</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Data Scene-Week Board</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Policy Write-Serve Believe</t>
+          <t>Back Radio-Data Scene</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Sort Method-Effort Rather</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Maybe Modern-Design Degree</t>
+          <t>Shake Suddenly-Third Million</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Add Than-Yourself How</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Message Describe-Industry Police</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Play Create-Camera Recently</t>
+          <t>National Talk-Good Cup</t>
         </is>
       </c>
     </row>
@@ -786,62 +806,52 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Order Five-Project Almost</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Matter Country-Me Must</t>
+          <t>Chair Point-Heavy Concern</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paper Camera-Why Budget</t>
+          <t>Production Idea-Wish Foot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Seem How-Fish Couple</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Can Control-Side Former</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Anyone Might-Education Point</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Gas Husband-Cover Manage</t>
+          <t>Message Describe-Yard Man</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Property Stop-Camera Front</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Admit Produce-Do Than</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Behind Coach-Example Three</t>
+          <t>Kind Blood-Free Financial</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>National Talk-Specific Goal</t>
+          <t>Letter National-Me Must</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Can Control-Position Oil</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Series Recently-Natural Might</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Arm Nature-Half Pattern</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Impact Fire-Their West</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>After Morning-Growth Military</t>
+          <t>Fill Dark-Trial Meeting</t>
         </is>
       </c>
     </row>
@@ -987,37 +997,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>That Leader-Seem How</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Sort Method-Skill Support</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Letter National-Central Reason</t>
+          <t>Kind Blood-Race Seven</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Minute Always-Sense Follow</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Do Than-Individual Could</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Why Budget-Stock Measure</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Simple Training-Suddenly Inside</t>
+          <t>Agency Truth-Sign Learn</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Unit Budget-Free Financial</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Bag Girl-Also Tax</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Drug Condition-Past Factor</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Road Involve-Shake Second</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Less Determine-Reveal Today</t>
+          <t>Issue Together-Third Million</t>
         </is>
       </c>
     </row>
@@ -1027,21 +1042,6 @@
           <t>18-19</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Hair Paper-Paper Camera</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Short Property-Top Member</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Lot Recent-Project Almost</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Question Finally-Expert Everyone</t>
@@ -1049,32 +1049,42 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Law Employee-Why Budget</t>
+          <t>System New-Really Seat</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Source Decide-Trial Meeting</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>After Morning-Shake Second</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>East Well-Sea Administration</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Still Race-Reason During</t>
+          <t>Add Than-Maintain South</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Attorney Travel-Bag Girl</t>
+          <t>Me Must-Test Gun</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Kind Blood-Race Seven</t>
+          <t>Health Start-Discover Head</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Indeed Day-Save Over</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Different Our-Everything Color</t>
+          <t>When Less-Two Standard</t>
         </is>
       </c>
     </row>
@@ -1086,57 +1096,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bill Minute-Unit Budget</t>
+          <t>None Explain-Side Former</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Republican Continue-Government Majority</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Reach Medical-Sea Administration</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Rate Through-Yard Man</t>
+          <t>Sound Television-Reach Set</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Big Store-Summer Without</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Education Point-Series Recently</t>
+          <t>National Talk-Property Stop</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Policy Write-None Explain</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Heavy Concern-Sound Television</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Their Development-Try Stand</t>
+          <t>Condition Way-Down Threat</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Education Point-Different Our</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Issue Together-Shake Suddenly</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Candidate Home-Have Full</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Fill Dark-Trial Meeting</t>
+          <t>Impact Fire-Position Oil</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Specific Goal-Camera Front</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Drive Executive-Our Second</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sure Member-Heavy Concern</t>
         </is>
       </c>
     </row>
@@ -1148,67 +1153,67 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ability Food-Industry Police</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Down Threat-Summer Without</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Easy Exist-Product Hope</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Raise Call-Maybe Modern</t>
+          <t>Arm Nature-Reveal Today</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Central Reason-Green Religious</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Better Environmental-Operation Scientist</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Product Hope-Skill Support</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Once Bill-Own No</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Ever Material-Help Amount</t>
+          <t>Involve Big-Board American</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Health Start-Rate Billion</t>
+          <t>Concern Herself-Road Involve</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Rate Budget-Test Gun</t>
+          <t>Short Property-Natural Wait</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Half Management-Growth Military</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Good Cup-Sure Law</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Short North-Audience Health</t>
+          <t>Candidate Home-Rate Budget</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Beyond Above-Record Allow</t>
+          <t>State Baby-Offer Well</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>System New-Source Laugh</t>
+          <t>Indeed Day-Less Determine</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Arm Nature-Half Pattern</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Drive Executive-Evening Those</t>
+          <t>Data Scene-Cover Manage</t>
         </is>
       </c>
     </row>
@@ -1218,69 +1223,49 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Necessary Ask-Decision After</t>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Seem How-Fish Couple</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Also Hold-Reach Set</t>
+          <t>Behind Coach-Help Amount</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>When Less-Anything Yes</t>
+          <t>Reach Medical-Time Management</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Play Create-Really Seat</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Agency Truth-Clearly Human</t>
+          <t>Also Hold-Wait Long</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Specific Goal-Camera Front</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+          <t>Clearly Human-Design Degree</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Town Feeling-Save Over</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Try Stand-Reason During</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Order Five-Town Challenge</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>Difference Throughout-Simply Industry</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Admit Produce-Region Begin</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Half Management-Within Least</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Can Control-Position Oil</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Design Degree-Week Board</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Chair Point-Sure Member</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>At Could-Two Some</t>
         </is>
       </c>
     </row>
@@ -1292,67 +1277,57 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sense Follow-Message Describe</t>
+          <t>Still Race-Particular Such</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>National Talk-Property Stop</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Maintain South-Behind Coach</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Town Feeling-Somebody Product</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Especially Stuff-There Because</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Make Later-Morning Several</t>
+          <t>Different Economy-That Leader</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Produce Early-Fill Dark</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Their Development-Region Begin</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Also Tax-Always Protect</t>
+          <t>Own No-Record Allow</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Whom Social-Far Word</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Data Scene-Cover Manage</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Better Environmental-Play Nature</t>
+          <t>Especially Stuff-More Seat</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Morning Several-Different Them</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Make Later-See To</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Anyone Might-Natural Might</t>
+          <t>Beyond Above-Shake Suddenly</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Condition Way-Night Today</t>
+          <t>Government Majority-Drug Condition</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Two Standard-Do Than</t>
+          <t>Hair Paper-Resource Question</t>
         </is>
       </c>
     </row>
@@ -1496,79 +1471,64 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Bag Girl-Also Tax</t>
-        </is>
-      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Involve Big-Sure Member</t>
+          <t>Two Some-Skill Support</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Anything Yes-Individual Could</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Operation Scientist-Third Million</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Big Store-Time Management</t>
+          <t>Health Start-Reach Medical</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Condition Way-Night Today</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Race Seven-Free Financial</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Add Than-Natural Wait</t>
+          <t>Question Finally-Difference Throughout</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>State Baby-Production Idea</t>
+          <t>Agency Truth-Week Board</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Clearly Human-Sign Learn</t>
+          <t>Big Store-Rate Billion</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Their Development-Particular Such</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Raise Call-Gas Husband</t>
+          <t>Also Hold-Piece Party</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Opportunity Kind-Resource Question</t>
+          <t>National Talk-Sure Law</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>There Because-Wish Foot</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Always Protect-Shake Second</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Minute Always-Play Create</t>
+          <t>Different Economy-Seem How</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Bill Minute-Look Six</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Still Race-Two Standard</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Short Property-Ever Material</t>
         </is>
       </c>
     </row>
@@ -1578,44 +1538,84 @@
           <t>18-19</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>That Leader-Product Hope</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Different Them-See To</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Their West-Serve Believe</t>
+          <t>Especially Stuff-Order Five</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Minute Citizen-Test Gun</t>
+          <t>Anyone Might-Officer Six</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hair Paper-Me Next</t>
+          <t>Short North-Yourself How</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Back Radio-Cover Manage</t>
+          <t>Education Hit-Why Budget</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Easy Exist-Effort Rather</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Operation Scientist-Beyond Above</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Half Management-Growth Military</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Less Determine-Somebody Product</t>
+          <t>Half Pattern-Save Over</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Individual Could-Reason During</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Yes Other-Concern Herself</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Admit Produce-When Less</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>East Well-Discover Head</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Example Three-Audience Health</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Different Our-Those Nature</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Company Car-Government Majority</t>
+          <t>Expert Everyone-Simply Industry</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Rate Leg-Natural Might</t>
         </is>
       </c>
     </row>
@@ -1625,64 +1625,59 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Half Pattern-Indeed Day</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Rate Budget-Matter Country</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Letter National-Have Full</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Why Budget-Stock Measure</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Sea Administration-Down Threat</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Two Some-Fish Couple</t>
+          <t>Rate Through-Industry Police</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Can Control-Serve Believe</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Drive Executive-Past Factor</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Also Hold-Board American</t>
+          <t>Attorney Travel-Also Tax</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Evening Those-Drug Condition</t>
+          <t>Candidate Home-Have Full</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Officer Six-Different Our</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Kind Blood-Sure Law</t>
+          <t>Raise Call-Cover Manage</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lot Recent-Town Challenge</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Issue Together-Far Word</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Simple Training-Suddenly Inside</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Race Seven-Unit Budget</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Paper Camera-Stock Measure</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Piece Party-Heavy Concern</t>
+          <t>Message Describe-Camera Recently</t>
         </is>
       </c>
     </row>
@@ -1694,47 +1689,62 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Do Board-Series Recently</t>
+          <t>Position Oil-None Explain</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Agency Truth-Maybe Modern</t>
+          <t>Law Employee-Opportunity Kind</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Policy Write-Their West</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Impact Fire-Position Oil</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Order Five-Notice World</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Detail Person-Me Must</t>
+          <t>Matter Country-Test Gun</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Once Bill-Play Nature</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Natural Wait-Top Member</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Rate Budget-Me Must</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Property Stop-Specific Goal</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Back Radio-Sign Learn</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Short North-Ever Material</t>
+          <t>Republican Continue-Evening Those</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>After Morning-Attorney Travel</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>None Explain-Side Former</t>
+          <t>Road Involve-Within Least</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Seem How-Skill Support</t>
+          <t>Draw Another-Me Next</t>
         </is>
       </c>
     </row>
@@ -1744,74 +1754,54 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Easy Exist-Effort Rather</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Top Member-Example Three</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Industry Police-Really Seat</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Project Almost-Town Challenge</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Rate Leg-Everything Color</t>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Clearly Human-Gas Husband</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Letter National-Central Reason</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>East Well-Discover Head</t>
+          <t>Always Protect-Shake Second</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Yes Other-Concern Herself</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Draw Another-Law Employee</t>
+          <t>Down Threat-Summer Without</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>When Less-Region Begin</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>System Practice-Data Scene</t>
+          <t>Better Environmental-Whom Social</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>At Could-Sort Method</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Candidate Home-Central Reason</t>
+          <t>Fish Couple-Product Hope</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Ability Food-Yard Man</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Different Economy-Open First</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Our Second-Difference Throughout</t>
+          <t>More Seat-Wish Foot</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Wait Long-Decision After</t>
+          <t>Sure Member-Wait Long</t>
         </is>
       </c>
     </row>
@@ -1821,69 +1811,79 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Especially Stuff-More Seat</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Make Later-See To</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Education Hit-Prevent Read</t>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Make Later-Less Determine</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Their Development-Particular Such</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Morning Several-Reveal Today</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Bill Minute-Property Stop</t>
+          <t>Chair Point-Reach Set</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Impact Fire-Produce Early</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Yourself How-Help Amount</t>
+          <t>Source Laugh-Really Seat</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Company Car-Past Factor</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Source Laugh-Camera Recently</t>
+          <t>Region Begin-Do Than</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Good Cup-Look Six</t>
+          <t>Production Idea-Offer Well</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Those Nature-Natural Might</t>
+          <t>Morning Several-Somebody Product</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Save Over-Different Them</t>
+          <t>State Baby-Project Almost</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Policy Write-Source Decide</t>
+          <t>Side Former-Source Decide</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Education Point-Suddenly Inside</t>
+          <t>Maybe Modern-System Practice</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Town Feeling-Reveal Today</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Try Stand-Anything Yes</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Do Than-Reason During</t>
+          <t>Everything Color-Series Recently</t>
         </is>
       </c>
     </row>
@@ -2029,52 +2029,72 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Me Next-Prevent Read</t>
+          <t>Bill Minute-Free Financial</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Message Describe-Really Seat</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Especially Stuff-State Baby</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Also Hold-Sure Member</t>
+          <t>There Because-Lot Recent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Camera Recently-Yard Man</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Design Degree-Week Board</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Piece Party-Necessary Ask</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Back Radio-Week Board</t>
+          <t>Candidate Home-Detail Person</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Whom Social-Play Nature</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Policy Write-Position Oil</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Operation Scientist-Shake Suddenly</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>System Practice-Cover Manage</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Different Economy-Fish Couple</t>
+          <t>National Talk-Camera Front</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Add Than-Behind Coach</t>
+          <t>Road Involve-Always Protect</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Sound Television-Reach Set</t>
+          <t>Law Employee-Resource Question</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Issue Together-Play Nature</t>
+          <t>Can Control-Fill Dark</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Add Than-Ever Material</t>
         </is>
       </c>
     </row>
@@ -2084,64 +2104,84 @@
           <t>18-19</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sort Method-Product Hope</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Position Oil-Side Former</t>
+          <t>That Leader-Effort Rather</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Attorney Travel-Concern Herself</t>
+          <t>Maintain South-Behind Coach</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Serve Believe-None Explain</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Gas Husband-Cover Manage</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Reveal Today-See To</t>
+          <t>Fish Couple-Open First</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Lot Recent-Town Challenge</t>
+          <t>Half Pattern-Town Feeling</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sure Law-Specific Goal</t>
+          <t>Education Point-Everything Color</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Series Recently-Those Nature</t>
+          <t>Kind Blood-Sure Law</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Property Stop-Race Seven</t>
+          <t>Also Hold-Involve Big</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Less Determine-Reveal Today</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Night Today-Discover Head</t>
+          <t>Produce Early-Trial Meeting</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Two Some-Seem How</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Republican Continue-Evening Those</t>
+          <t>Evening Those-Government Majority</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Impact Fire-Trial Meeting</t>
+          <t>Simply Industry-Past Factor</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Maintain South-Audience Health</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>Condition Way-Health Start</t>
+          <t>Officer Six-Series Recently</t>
         </is>
       </c>
     </row>
@@ -2151,54 +2191,74 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Anyone Might-Simple Training</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Law Employee-Resource Question</t>
+          <t>Minute Always-Rate Through</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Republican Continue-Drug Condition</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Health Start-Summer Without</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Clearly Human-Data Scene</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Road Involve-Growth Military</t>
+          <t>Letter National-Test Gun</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Chair Point-Piece Party</t>
+          <t>At Could-Different Economy</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Region Begin-Anything Yes</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Yes Other-Within Least</t>
+          <t>Also Tax-Within Least</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Can Control-Policy Write</t>
+          <t>Own No-Far Word</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Different Our-Do Board</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Do Than-Anything Yes</t>
+          <t>Offer Well-Town Challenge</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Drive Executive-Question Finally</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Industry Police-Source Laugh</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Sense Follow-Industry Police</t>
+          <t>Company Car-Our Second</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>At Could-Skill Support</t>
+          <t>Bag Girl-Half Management</t>
         </is>
       </c>
     </row>
@@ -2210,77 +2270,57 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Serve Believe-Produce Early</t>
+          <t>Short Property-Short North</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Rate Through-System New</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Arm Nature-Town Feeling</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Our Second-Simply Industry</t>
+          <t>Green Religious-Minute Citizen</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Beyond Above-Whom Social</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Detail Person-Matter Country</t>
+          <t>Paper Camera-Opportunity Kind</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Hair Paper-Prevent Read</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Drive Executive-Expert Everyone</t>
+          <t>Heavy Concern-Wait Long</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Officer Six-Suddenly Inside</t>
+          <t>Maybe Modern-Back Radio</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Record Allow-Far Word</t>
+          <t>Better Environmental-Third Million</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Order Five-Wish Foot</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>After Morning-Growth Military</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unit Budget-Look Six</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Gas Husband-Data Scene</t>
+          <t>Do Board-Those Nature</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Two Some-Sort Method</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Production Idea-Offer Well</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Two Standard-Try Stand</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Natural Wait-Short North</t>
+          <t>Attorney Travel-Shake Second</t>
         </is>
       </c>
     </row>
@@ -2290,79 +2330,39 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Particular Such-Individual Could</t>
-        </is>
-      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Admit Produce-Still Race</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Paper Camera-Stock Measure</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Candidate Home-Letter National</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Involve Big-Wait Long</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Question Finally-Drug Condition</t>
+          <t>Property Stop-Good Cup</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Necessary Ask-Heavy Concern</t>
+          <t>Suddenly Inside-Natural Might</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Short Property-Help Amount</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Reach Medical-Rate Billion</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Their Development-Region Begin</t>
+          <t>Rate Billion-Time Management</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Third Million-Own No</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>After Morning-Also Tax</t>
+          <t>Still Race-Do Than</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Shake Suddenly-Once Bill</t>
+          <t>Arm Nature-See To</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>More Seat-Wish Foot</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Ability Food-Yard Man</t>
+          <t>Big Store-East Well</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sound Television-Decision After</t>
         </is>
       </c>
     </row>
@@ -2372,44 +2372,74 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Indeed Day-Different Them</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Impact Fire-Source Decide</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Minute Always-Source Laugh</t>
+          <t>Race Seven-Look Six</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Their West-Side Former</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Fill Dark-Source Decide</t>
+          <t>Board American-Reach Set</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Good Cup-Camera Front</t>
+          <t>Agency Truth-Raise Call</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Time Management-Summer Without</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Less Determine-Morning Several</t>
+          <t>Help Amount-Top Member</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>When Less-Individual Could</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Once Bill-Record Allow</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Agency Truth-Design Degree</t>
+          <t>Natural Wait-Audience Health</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Sense Follow-System New</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Message Describe-Really Seat</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Better Environmental-Operation Scientist</t>
+          <t>Draw Another-Stock Measure</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Chair Point-Sure Member</t>
         </is>
       </c>
     </row>
@@ -2555,62 +2585,82 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>State Baby-More Seat</t>
+          <t>Easy Exist-Fish Couple</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Easy Exist-Seem How</t>
+          <t>Industry Police-Really Seat</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sure Law-Camera Front</t>
+          <t>Central Reason-Rate Budget</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sure Member-Sound Television</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Somebody Product-Different Them</t>
+          <t>Republican Continue-Expert Everyone</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Big Store-Down Threat</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Admit Produce-When Less</t>
+          <t>After Morning-Yes Other</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Time Management-Discover Head</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Especially Stuff-Notice World</t>
+          <t>Raise Call-Data Scene</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Third Million-Record Allow</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Sort Method-Open First</t>
+          <t>Good Cup-Race Seven</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Necessary Ask-Board American</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Week Board-Cover Manage</t>
+          <t>Position Oil-Source Decide</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Side Former-Trial Meeting</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Yourself How-Example Three</t>
+          <t>Involve Big-Piece Party</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Their West-Serve Believe</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Admit Produce-Region Begin</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Policy Write-Side Former</t>
+          <t>Better Environmental-Own No</t>
         </is>
       </c>
     </row>
@@ -2620,69 +2670,49 @@
           <t>18-19</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>System New-Yard Man</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Different Our-Series Recently</t>
+          <t>Especially Stuff-Project Almost</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ability Food-Source Laugh</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hair Paper-Opportunity Kind</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Impact Fire-Source Decide</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Rate Through-Really Seat</t>
+          <t>Rate Through-Camera Recently</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Particular Such-Anything Yes</t>
+          <t>Letter National-Have Full</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Add Than-Audience Health</t>
+          <t>Particular Such-Reason During</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Issue Together-Once Bill</t>
+          <t>Once Bill-Far Word</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Rate Budget-Minute Citizen</t>
+          <t>Detail Person-Test Gun</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>After Morning-Bag Girl</t>
+          <t>Less Determine-Different Them</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Heavy Concern-Decision After</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Good Cup-Free Financial</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Serve Believe-Fill Dark</t>
+          <t>Rate Leg-Do Board</t>
         </is>
       </c>
     </row>
@@ -2694,72 +2724,62 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kind Blood-Look Six</t>
+          <t>Reveal Today-See To</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Their West-Position Oil</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Half Pattern-Save Over</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Fish Couple-Effort Rather</t>
+          <t>Back Radio-System Practice</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Hair Paper-Opportunity Kind</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Company Car-Simply Industry</t>
+          <t>Wait Long-Reach Set</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Paper Camera-Resource Question</t>
+          <t>Maintain South-Example Three</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Maybe Modern-Back Radio</t>
+          <t>Night Today-Down Threat</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Government Majority-Drug Condition</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Matter Country-Test Gun</t>
+          <t>Company Car-Drive Executive</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Rate Leg-Education Point</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Two Some-That Leader</t>
+          <t>Lot Recent-More Seat</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Bill Minute-Race Seven</t>
+          <t>Can Control-Impact Fire</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Make Later-Town Feeling</t>
+          <t>Me Next-Prevent Read</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Different Economy-Skill Support</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Arm Nature-See To</t>
+          <t>Different Our-Suddenly Inside</t>
         </is>
       </c>
     </row>
@@ -2776,62 +2796,77 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Central Reason-Have Full</t>
+          <t>Candidate Home-Green Religious</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Their Development-Two Standard</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ability Food-Camera Recently</t>
+          <t>Short North-Top Member</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Product Hope-Skill Support</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>East Well-Condition Way</t>
+          <t>Whom Social-Shake Suddenly</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Our Second-Past Factor</t>
+          <t>Attorney Travel-Half Management</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Involve Big-Board American</t>
+          <t>Make Later-Morning Several</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Notice World-Town Challenge</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Condition Way-Reach Medical</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Evening Those-Expert Everyone</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Half Management-Shake Second</t>
+          <t>Simple Training-Education Point</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Government Majority-Difference Throughout</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Order Five-State Baby</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Sea Administration-Summer Without</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Road Involve-Within Least</t>
+          <t>Two Some-Open First</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Also Hold-Necessary Ask</t>
+          <t>Draw Another-Why Budget</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Everything Color-Natural Might</t>
+          <t>Property Stop-Sure Law</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Play Create-System New</t>
         </is>
       </c>
     </row>
@@ -2843,52 +2878,47 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Industry Police-Play Create</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Education Hit-Why Budget</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Draw Another-Stock Measure</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Short North-Help Amount</t>
+          <t>Policy Write-None Explain</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wish Foot-Offer Well</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Heavy Concern-Decision After</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Natural Wait-Yourself How</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Anyone Might-Natural Might</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Sure Member-Reach Set</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Still Race-Try Stand</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Play Nature-Far Word</t>
+          <t>Education Hit-Paper Camera</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Also Tax-Concern Herself</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Two Standard-Reason During</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Production Idea-Project Almost</t>
+          <t>There Because-Production Idea</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Beyond Above-Shake Suddenly</t>
+          <t>At Could-Effort Rather</t>
         </is>
       </c>
     </row>
@@ -2898,69 +2928,64 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Order Five-Offer Well</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>System Practice-Gas Husband</t>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>When Less-Try Stand</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Maybe Modern-Design Degree</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Clearly Human-Raise Call</t>
+          <t>Behind Coach-Ever Material</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>None Explain-Produce Early</t>
+          <t>Sense Follow-Message Describe</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Matter Country-Me Must</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Agency Truth-Sign Learn</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Short Property-Ever Material</t>
+          <t>Half Pattern-Indeed Day</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Sign Learn-Cover Manage</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Officer Six-Those Nature</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>There Because-Town Challenge</t>
+          <t>Somebody Product-Save Over</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Letter National-Me Must</t>
+          <t>Camera Front-Look Six</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Concern Herself-Always Protect</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Message Describe-Source Laugh</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Maintain South-Top Member</t>
+          <t>Issue Together-Play Nature</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Do Than-Individual Could</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>Attorney Travel-Growth Military</t>
+          <t>Beyond Above-Record Allow</t>
         </is>
       </c>
     </row>
@@ -3104,69 +3129,69 @@
           <t>17-18</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Save Over-See To</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Still Race-Their Development</t>
+          <t>Property Stop-Race Seven</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Can Control-Produce Early</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Property Stop-Kind Blood</t>
+          <t>Republican Continue-Our Second</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Serve Believe-Source Decide</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Night Today-Summer Without</t>
+          <t>Agency Truth-Maybe Modern</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Easy Exist-Product Hope</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Republican Continue-Past Factor</t>
+          <t>East Well-Night Today</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Our Second-Expert Everyone</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Simple Training-Different Our</t>
+          <t>Do Than-Anything Yes</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Add Than-Short Property</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>East Well-Reach Medical</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Attorney Travel-Half Management</t>
+          <t>Shake Suddenly-Record Allow</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Race Seven-Look Six</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Raise Call-Design Degree</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Maybe Modern-Week Board</t>
+          <t>State Baby-Production Idea</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Different Them-See To</t>
+          <t>Impact Fire-Serve Believe</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Necessary Ask-Sound Television</t>
         </is>
       </c>
     </row>
@@ -3176,44 +3201,74 @@
           <t>18-19</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>When Less-Individual Could</t>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Play Create-Really Seat</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Chair Point-Necessary Ask</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Seem How-Product Hope</t>
+          <t>After Morning-Attorney Travel</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Third Million-Play Nature</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Clearly Human-Back Radio</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Drive Executive-Simply Industry</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Big Store-Health Start</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Especially Stuff-Offer Well</t>
+          <t>Minute Citizen-Have Full</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Side Former-Trial Meeting</t>
+          <t>There Because-More Seat</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Natural Wait-Behind Coach</t>
+          <t>Their West-Trial Meeting</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Reach Medical-Down Threat</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Education Point-Natural Might</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Do Board-Everything Color</t>
+          <t>Growth Military-Shake Second</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>Indeed Day-Morning Several</t>
+          <t>Evening Those-Past Factor</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Unit Budget-Look Six</t>
         </is>
       </c>
     </row>
@@ -3225,62 +3280,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Me Next-Opportunity Kind</t>
+          <t>Opportunity Kind-Resource Question</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Piece Party-Sound Television</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Health Start-Discover Head</t>
+          <t>Central Reason-Me Must</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>System Practice-Sign Learn</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Law Employee-Prevent Read</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Big Store-Sea Administration</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Notice World-Town Challenge</t>
+          <t>Maintain South-Audience Health</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Town Feeling-Morning Several</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Candidate Home-Test Gun</t>
+          <t>Rate Billion-Discover Head</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Less Determine-Town Feeling</t>
+          <t>Time Management-Summer Without</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Back Radio-Data Scene</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Message Describe-System New</t>
+          <t>Simple Training-Series Recently</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Minute Citizen-Have Full</t>
+          <t>Operation Scientist-Once Bill</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Law Employee-Stock Measure</t>
         </is>
       </c>
     </row>
@@ -3292,37 +3332,82 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>That Leader-Open First</t>
+          <t>Policy Write-Source Decide</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Good Cup-Kind Blood</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Easy Exist-Skill Support</t>
+          <t>Chair Point-Board American</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Also Hold-Wait Long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Rate Budget-Green Religious</t>
+          <t>Involve Big-Decision After</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Sort Method-Fish Couple</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Source Laugh-Camera Recently</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Company Car-Difference Throughout</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Whom Social-Third Million</t>
+          <t>Rate Budget-Matter Country</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Still Race-Individual Could</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Question Finally-Drug Condition</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Yes Other-Bag Girl</t>
+          <t>Those Nature-Suddenly Inside</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Bill Minute-National Talk</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>None Explain-Fill Dark</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Also Tax-Within Least</t>
+          <t>Different Economy-Two Some</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>That Leader-Seem How</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Ability Food-Minute Always</t>
         </is>
       </c>
     </row>
@@ -3334,87 +3419,57 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Order Five-More Seat</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Company Car-Drive Executive</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>After Morning-Concern Herself</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Anyone Might-Series Recently</t>
+          <t>System Practice-Gas Husband</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Also Hold-Reach Set</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Minute Always-Industry Police</t>
+          <t>Concern Herself-Always Protect</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Sense Follow-Really Seat</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Sure Member-Heavy Concern</t>
+          <t>Better Environmental-Beyond Above</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Question Finally-Government Majority</t>
+          <t>Half Management-Within Least</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Draw Another-Why Budget</t>
+          <t>Letter National-Detail Person</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Lot Recent-Wish Foot</t>
+          <t>Project Almost-Town Challenge</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Rate Billion-Time Management</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Admit Produce-Try Stand</t>
+          <t>Arm Nature-Indeed Day</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Can Control-Impact Fire</t>
+          <t>Do Board-Everything Color</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Arm Nature-Save Over</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Issue Together-Record Allow</t>
+          <t>Ever Material-Yourself How</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Officer Six-Rate Leg</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Better Environmental-Shake Suddenly</t>
+          <t>At Could-Open First</t>
         </is>
       </c>
     </row>
@@ -3426,62 +3481,67 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bill Minute-Sure Law</t>
+          <t>Different Them-Reveal Today</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ever Material-Top Member</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Half Pattern-Reveal Today</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Their West-Produce Early</t>
+          <t>Specific Goal-Free Financial</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>System New-Yard Man</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Operation Scientist-Own No</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Education Hit-Stock Measure</t>
+          <t>Draw Another-Education Hit</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Specific Goal-Free Financial</t>
+          <t>Make Later-Somebody Product</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Data Scene-Week Board</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Those Nature-Suddenly Inside</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Central Reason-Me Must</t>
+          <t>Design Degree-Cover Manage</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Top Member-Example Three</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Region Begin-Particular Such</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Yes Other-Also Tax</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Region Begin-Reason During</t>
+          <t>Bag Girl-Road Involve</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>At Could-Different Economy</t>
+          <t>Short North-Help Amount</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Camera Recently-Yard Man</t>
+          <t>Two Standard-Try Stand</t>
         </is>
       </c>
     </row>
@@ -3625,84 +3685,79 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Question Finally-Evening Those</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>National Talk-Camera Front</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Agency Truth-Cover Manage</t>
+          <t>Sure Law-Look Six</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Sure Member-Reach Set</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sense Follow-Yard Man</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Education Hit-Hair Paper</t>
+          <t>Evening Those-Expert Everyone</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Add Than-Short North</t>
+          <t>Better Environmental-Shake Suddenly</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Letter National-Green Religious</t>
+          <t>Once Bill-Own No</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Especially Stuff-Production Idea</t>
+          <t>Different Our-Do Board</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>East Well-Rate Billion</t>
+          <t>Agency Truth-Data Scene</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Draw Another-Resource Question</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Growth Military-Shake Second</t>
+          <t>Natural Wait-Help Amount</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Make Later-Somebody Product</t>
+          <t>Good Cup-Camera Front</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Their West-None Explain</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Clearly Human-Maybe Modern</t>
+          <t>After Morning-Half Management</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Their Development-Do Than</t>
+          <t>Can Control-Side Former</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Industry Police-Yard Man</t>
+          <t>More Seat-Offer Well</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
           <t>X</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>Natural Wait-Top Member</t>
         </is>
       </c>
     </row>
@@ -3714,47 +3769,77 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Candidate Home-Detail Person</t>
+          <t>There Because-State Baby</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Discover Head-Summer Without</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Kind Blood-Unit Budget</t>
+          <t>Detail Person-Matter Country</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Matter Country-Have Full</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Position Oil-Produce Early</t>
+          <t>Their West-Fill Dark</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Paper Camera-Prevent Read</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Government Majority-Simply Industry</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Also Hold-Decision After</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Behind Coach-Help Amount</t>
+          <t>Clearly Human-Maybe Modern</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>When Less-Their Development</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Everything Color-Those Nature</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Policy Write-Fill Dark</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Night Today-Health Start</t>
+          <t>Concern Herself-Within Least</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Design Degree-Sign Learn</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>East Well-Condition Way</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Issue Together-Whom Social</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
           <t>X</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Easy Exist-Skill Support</t>
         </is>
       </c>
     </row>
@@ -3764,64 +3849,69 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Ability Food-Source Laugh</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Half Pattern-See To</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Law Employee-Opportunity Kind</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Beyond Above-Once Bill</t>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Health Start-Down Threat</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Town Feeling-Morning Several</t>
+          <t>Big Store-Reach Medical</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>System Practice-Design Degree</t>
+          <t>Opportunity Kind-Stock Measure</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Behind Coach-Audience Health</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Anyone Might-Simple Training</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Discover Head-Summer Without</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Do Board-Those Nature</t>
+          <t>Rate Leg-Series Recently</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>At Could-Fish Couple</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Officer Six-Suddenly Inside</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Anything Yes-Reason During</t>
+          <t>That Leader-Sort Method</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>There Because-Project Almost</t>
+          <t>Position Oil-Produce Early</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Property Stop-Good Cup</t>
+          <t>Seem How-Effort Rather</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
           <t>X</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Hair Paper-Me Next</t>
         </is>
       </c>
     </row>
@@ -3831,79 +3921,59 @@
           <t>20-21</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Source Decide-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Chair Point-Reach Set</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Minute Always-System New</t>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Rate Through-Play Create</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bag Girl-Always Protect</t>
+          <t>Ability Food-Industry Police</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Skill Support-Open First</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Expert Everyone-Drug Condition</t>
+          <t>Letter National-Green Religious</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Necessary Ask-Wait Long</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Reach Medical-Down Threat</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Involve Big-Heavy Concern</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Fish Couple-Product Hope</t>
+          <t>Beyond Above-Third Million</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Piece Party-Wait Long</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Difference Throughout-Past Factor</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Bill Minute-Look Six</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Anyone Might-Rate Leg</t>
+          <t>Serve Believe-Source Decide</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Message Describe-System New</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Short Property-Yourself How</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>When Less-Particular Such</t>
+          <t>Town Feeling-See To</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
           <t>X</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Anything Yes-Reason During</t>
         </is>
       </c>
     </row>
@@ -3913,64 +3983,59 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Sure Law-Free Financial</t>
-        </is>
-      </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Officer Six-Natural Might</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Simple Training-Education Point</t>
+          <t>Especially Stuff-Lot Recent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>At Could-Effort Rather</t>
+          <t>Raise Call-Gas Husband</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Drive Executive-Republican Continue</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Big Store-Condition Way</t>
+          <t>Rate Budget-Minute Citizen</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Order Five-Town Challenge</t>
+          <t>Order Five-Notice World</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Half Management-Road Involve</t>
+          <t>Wish Foot-Town Challenge</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Lot Recent-More Seat</t>
+          <t>Indeed Day-Save Over</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Different Economy-Two Some</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Admit Produce-Two Standard</t>
+          <t>Chair Point-Involve Big</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Make Later-Half Pattern</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Bill Minute-Property Stop</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
           <t>X</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Law Employee-Why Budget</t>
         </is>
       </c>
     </row>
@@ -3980,64 +4045,54 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Rate Through-Play Create</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sea Administration-Time Management</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Own No-Far Word</t>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Admit Produce-Still Race</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Whom Social-Play Nature</t>
+          <t>Candidate Home-Test Gun</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Necessary Ask-Heavy Concern</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Maintain South-Example Three</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Ever Material-Audience Health</t>
+          <t>Less Determine-Morning Several</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Arm Nature-Less Determine</t>
+          <t>Ever Material-Example Three</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>State Baby-Offer Well</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Back Radio-Gas Husband</t>
+          <t>Play Nature-Far Word</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>That Leader-Sort Method</t>
+          <t>Bag Girl-Always Protect</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Me Next-Resource Question</t>
+          <t>Two Standard-Region Begin</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Really Seat-Camera Recently</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Government Majority-Simply Industry</t>
+          <t>Production Idea-Project Almost</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -4047,7 +4102,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Piece Party-Board American</t>
+          <t>Particular Such-Individual Could</t>
         </is>
       </c>
     </row>
@@ -4193,67 +4248,77 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Produce Early-Side Former</t>
+          <t>Half Pattern-Different Them</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Rate Leg-Those Nature</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>More Seat-Notice World</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>There Because-Lot Recent</t>
+          <t>Their West-None Explain</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Two Some-Open First</t>
+          <t>Law Employee-Me Next</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Better Environmental-Own No</t>
+          <t>Operation Scientist-Issue Together</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>After Morning-Road Involve</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Yes Other-Attorney Travel</t>
+          <t>Sort Method-Seem How</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Natural Wait-Help Amount</t>
+          <t>Minute Citizen-Test Gun</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Short Property-Yourself How</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Prevent Read-Resource Question</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Time Management-Down Threat</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>State Baby-Wish Foot</t>
+          <t>Arm Nature-Town Feeling</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Admit Produce-Two Standard</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Shake Suddenly-Play Nature</t>
+          <t>Impact Fire-Side Former</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Question Finally-Simply Industry</t>
+          <t>Indeed Day-Morning Several</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>Indeed Day-Somebody Product</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>Officer Six-Education Point</t>
+          <t>East Well-Summer Without</t>
         </is>
       </c>
     </row>
@@ -4263,69 +4328,69 @@
           <t>18-19</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Different Economy-Effort Rather</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Less Determine-See To</t>
+          <t>There Because-Project Almost</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Anyone Might-Different Our</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Hair Paper-Resource Question</t>
+          <t>Their Development-Anything Yes</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Clearly Human-Cover Manage</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>That Leader-Open First</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Maintain South-Yourself How</t>
+          <t>Shake Suddenly-Own No</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agency Truth-System Practice</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>East Well-Summer Without</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Issue Together-Third Million</t>
+          <t>Condition Way-Discover Head</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Reach Medical-Rate Billion</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Maybe Modern-Data Scene</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Detail Person-Test Gun</t>
+          <t>Officer Six-Education Point</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>When Less-Still Race</t>
+          <t>Sure Law-Free Financial</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Different Economy-Product Hope</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Whom Social-Once Bill</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>Sure Member-Wait Long</t>
+          <t>Behind Coach-Top Member</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Involve Big-Sound Television</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Also Hold-Board American</t>
         </is>
       </c>
     </row>
@@ -4337,62 +4402,47 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Policy Write-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Education Hit-Law Employee</t>
+          <t>Drive Executive-Government Majority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Also Hold-Sound Television</t>
+          <t>Can Control-Trial Meeting</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Town Feeling-Different Them</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Production Idea-Notice World</t>
+          <t>Policy Write-Produce Early</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Also Tax-Concern Herself</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Region Begin-Do Than</t>
+          <t>System Practice-Week Board</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Night Today-Health Start</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>More Seat-Project Almost</t>
+          <t>Production Idea-Town Challenge</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Make Later-Reveal Today</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Gas Husband-Sign Learn</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Stock Measure-Prevent Read</t>
+          <t>Question Finally-Simply Industry</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Raise Call-Back Radio</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Chair Point-Board American</t>
+          <t>Different Our-Natural Might</t>
         </is>
       </c>
     </row>
@@ -4404,62 +4454,77 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Kind Blood-Camera Front</t>
+          <t>National Talk-Race Seven</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Anyone Might-Do Board</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Their Development-Individual Could</t>
+          <t>Lot Recent-Wish Foot</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>At Could-Easy Exist</t>
+          <t>Maintain South-Help Amount</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Difference Throughout-Past Factor</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Draw Another-Opportunity Kind</t>
+          <t>Whom Social-Record Allow</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Camera Front-Unit Budget</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Our Second-Drug Condition</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Add Than-Example Three</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Growth Military-Within Least</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Beyond Above-Far Word</t>
+          <t>Central Reason-Detail Person</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Kind Blood-Specific Goal</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Can Control-Their West</t>
+          <t>Sea Administration-Down Threat</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Bill Minute-Free Financial</t>
+          <t>Rate Through-System New</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Rate Through-Industry Police</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Me Next-Why Budget</t>
+          <t>Bag Girl-Concern Herself</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Data Scene-Sign Learn</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Short Property-Behind Coach</t>
+          <t>Also Tax-Road Involve</t>
         </is>
       </c>
     </row>
@@ -4469,54 +4534,59 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Sense Follow-Camera Recently</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Rate Leg-Do Board</t>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Piece Party-Heavy Concern</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Two Some-Fish Couple</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Involve Big-Decision After</t>
+          <t>Hair Paper-Why Budget</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Me Must-Have Full</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Piece Party-Reach Set</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Republican Continue-Our Second</t>
+          <t>Still Race-Try Stand</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Evening Those-Difference Throughout</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Yes Other-Shake Second</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Seem How-Effort Rather</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Try Stand-Reason During</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Candidate Home-Minute Citizen</t>
+          <t>Somebody Product-Reveal Today</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Minute Always-Industry Police</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>At Could-Product Hope</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>Serve Believe-Position Oil</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>Operation Scientist-Record Allow</t>
+          <t>Really Seat-Yard Man</t>
         </is>
       </c>
     </row>
@@ -4526,59 +4596,69 @@
           <t>22-23</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Agency Truth-Gas Husband</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Fill Dark-Source Decide</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Message Describe-Yard Man</t>
+          <t>Company Car-Expert Everyone</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Raise Call-Back Radio</t>
+          <t>Do Than-Reason During</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Property Stop-Specific Goal</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Central Reason-Rate Budget</t>
+          <t>Attorney Travel-Within Least</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Clearly Human-Week Board</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Company Car-Drug Condition</t>
+          <t>Message Describe-Play Create</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Green Religious-Me Must</t>
+          <t>Sure Member-Decision After</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Everything Color-Suddenly Inside</t>
+          <t>Region Begin-Individual Could</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Less Determine-Save Over</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Ever Material-Example Three</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>Sea Administration-Discover Head</t>
+          <t>Big Store-Time Management</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Especially Stuff-Offer Well</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Impact Fire-None Explain</t>
+          <t>Short North-Audience Health</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Sense Follow-Source Laugh</t>
         </is>
       </c>
     </row>
@@ -4722,69 +4802,69 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Produce Early-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>That Leader-Fish Couple</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Policy Write-Position Oil</t>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Draw Another-Hair Paper</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Road Involve-Shake Second</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rate Budget-Detail Person</t>
+          <t>Gas Husband-Design Degree</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Add Than-Yourself How</t>
+          <t>Drive Executive-Past Factor</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>National Talk-Kind Blood</t>
+          <t>Especially Stuff-Notice World</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Expert Everyone-Simply Industry</t>
+          <t>Wish Foot-Project Almost</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Natural Wait-Ever Material</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>None Explain-Source Decide</t>
+          <t>Good Cup-Unit Budget</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Bill Minute-Good Cup</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Sound Television-Decision After</t>
+          <t>At Could-Seem How</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Raise Call-Sign Learn</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>Republican Continue-Difference Throughout</t>
+          <t>Government Majority-Expert Everyone</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Region Begin-Try Stand</t>
+          <t>That Leader-Product Hope</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Attorney Travel-Always Protect</t>
+          <t>Admit Produce-Particular Such</t>
         </is>
       </c>
     </row>
@@ -4796,47 +4876,72 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Property Stop-Free Financial</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Concern Herself-Growth Military</t>
+          <t>State Baby-More Seat</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Everything Color-Suddenly Inside</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Their West-Position Oil</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Their Development-Individual Could</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
+          <t>Third Million-Own No</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Green Religious-Matter Country</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Order Five-Lot Recent</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Company Car-Simply Industry</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Two Some-Easy Exist</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Law Employee-Prevent Read</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Skill Support-Effort Rather</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>When Less-Still Race</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
           <t>Question Finally-Our Second</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Behind Coach-Audience Health</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Back Radio-Sign Learn</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Officer Six-Everything Color</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Different Economy-Skill Support</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>After Morning-Shake Second</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>Hair Paper-Why Budget</t>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Yes Other-Within Least</t>
         </is>
       </c>
     </row>
@@ -4848,62 +4953,72 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ability Food-Sense Follow</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Reach Medical-Time Management</t>
+          <t>Education Hit-Opportunity Kind</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Rate Through-Source Laugh</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Stock Measure-Resource Question</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Impact Fire-Fill Dark</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Heavy Concern-Sound Television</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Heavy Concern-Board American</t>
+          <t>Health Start-Time Management</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Chair Point-Wait Long</t>
+          <t>Big Store-Discover Head</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Candidate Home-Matter Country</t>
+          <t>Bill Minute-Camera Front</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Simple Training-Those Nature</t>
+          <t>Half Management-Always Protect</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Different Our-Natural Might</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Admit Produce-Anything Yes</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Industry Police-System New</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Project Almost-Notice World</t>
+          <t>Test Gun-Have Full</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Indeed Day-See To</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Maybe Modern-Data Scene</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Drive Executive-Government Majority</t>
+          <t>Simple Training-Natural Might</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Involve Big-Necessary Ask</t>
+          <t>Anyone Might-Different Our</t>
         </is>
       </c>
     </row>
@@ -4915,42 +5030,62 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Play Create-Source Laugh</t>
+          <t>Serve Believe-Produce Early</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Condition Way-Rate Billion</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Big Store-East Well</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Health Start-Summer Without</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Lot Recent-Offer Well</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>Bag Girl-Road Involve</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>Morning Several-See To</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>Evening Those-Past Factor</t>
+          <t>Night Today-Sea Administration</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Minute Always-Yard Man</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Policy Write-Trial Meeting</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Beyond Above-Once Bill</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Sure Member-Necessary Ask</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Arm Nature-Make Later</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Attorney Travel-Concern Herself</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Do Board-Series Recently</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Candidate Home-Letter National</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Whom Social-Far Word</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Add Than-Top Member</t>
         </is>
       </c>
     </row>
@@ -4962,87 +5097,72 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Night Today-Sea Administration</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Easy Exist-Sort Method</t>
+          <t>Industry Police-Play Create</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Letter National-Test Gun</t>
+          <t>Paper Camera-Why Budget</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Still Race-Particular Such</t>
+          <t>Chair Point-Decision After</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sure Law-Unit Budget</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Two Some-Effort Rather</t>
+          <t>After Morning-Also Tax</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Half Pattern-Different Them</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Maybe Modern-Cover Manage</t>
+          <t>Difference Throughout-Drug Condition</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Indeed Day-Town Feeling</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Yes Other-Half Management</t>
+          <t>Involve Big-Reach Set</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Rate Budget-Detail Person</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Arm Nature-Reveal Today</t>
+          <t>Central Reason-Minute Citizen</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Especially Stuff-Town Challenge</t>
+          <t>East Well-Reach Medical</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Operation Scientist-Far Word</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Camera Front-Look Six</t>
+          <t>Specific Goal-Race Seven</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Ability Food-Sense Follow</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Maintain South-Natural Wait</t>
+          <t>Better Environmental-Issue Together</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Message Describe-Rate Through</t>
+          <t>Two Standard-Anything Yes</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Sure Member-Piece Party</t>
+          <t>Operation Scientist-Play Nature</t>
         </is>
       </c>
     </row>
@@ -5052,74 +5172,54 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>At Could-Seem How</t>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Wait Long-Board American</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>National Talk-Free Financial</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>System Practice-Week Board</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Short North-Example Three</t>
+          <t>Half Pattern-Reveal Today</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Me Next-Stock Measure</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Their Development-Two Standard</t>
+          <t>Property Stop-Look Six</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Draw Another-Education Hit</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Third Million-Play Nature</t>
+          <t>Clearly Human-Week Board</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Clearly Human-Design Degree</t>
+          <t>Sort Method-Open First</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Order Five-There Because</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Better Environmental-Issue Together</t>
+          <t>System New-Camera Recently</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>There Because-Town Challenge</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Minute Always-Yard Man</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>When Less-Reason During</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>Help Amount-Top Member</t>
+          <t>Maintain South-Yourself How</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Impact Fire-Fill Dark</t>
+          <t>Help Amount-Example Three</t>
         </is>
       </c>
     </row>
@@ -5265,67 +5365,72 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Make Later-Less Determine</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Somebody Product-Reveal Today</t>
+          <t>Piece Party-Sound Television</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>When Less-Reason During</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Me Must-Minute Citizen</t>
+          <t>Clearly Human-System Practice</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Behind Coach-Ever Material</t>
+          <t>Condition Way-Summer Without</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rate Billion-Summer Without</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Expert Everyone-Difference Throughout</t>
+          <t>Better Environmental-Once Bill</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Shake Suddenly-Third Million</t>
+          <t>Natural Wait-Short North</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Add Than-Top Member</t>
+          <t>Drive Executive-Evening Those</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Chair Point-Sound Television</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Individual Could-Reason During</t>
+          <t>Yourself How-Audience Health</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Lot Recent-Production Idea</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Production Idea-Wish Foot</t>
+          <t>Raise Call-Week Board</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>State Baby-Project Almost</t>
+          <t>Candidate Home-Matter Country</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Short Property-Maintain South</t>
+          <t>Admit Produce-Their Development</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>At Could-Easy Exist</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Why Budget-Prevent Read</t>
         </is>
       </c>
     </row>
@@ -5337,62 +5442,72 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Skill Support-Effort Rather</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Clearly Human-Data Scene</t>
+          <t>Me Must-Minute Citizen</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Message Describe-Industry Police</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Bill Minute-Specific Goal</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Education Hit-Opportunity Kind</t>
+          <t>Fish Couple-Skill Support</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Position Oil-Fill Dark</t>
+          <t>Can Control-Policy Write</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Education Hit-Me Next</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Ability Food-Play Create</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Region Begin-Try Stand</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Raise Call-Week Board</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>Good Cup-Specific Goal</t>
+          <t>Yes Other-Road Involve</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Still Race-Do Than</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Officer Six-Do Board</t>
+          <t>Kind Blood-Unit Budget</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Different Economy-Sort Method</t>
+          <t>Gas Husband-Sign Learn</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Two Standard-Do Than</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Arm Nature-Different Them</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>Operation Scientist-Beyond Above</t>
+          <t>Issue Together-Shake Suddenly</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Bag Girl-Within Least</t>
+          <t>Play Nature-Record Allow</t>
         </is>
       </c>
     </row>
@@ -5402,24 +5517,19 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Also Hold-Involve Big</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Candidate Home-Green Religious</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Can Control-Source Decide</t>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Green Religious-Have Full</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>East Well-Health Start</t>
+          <t>Sure Law-Camera Front</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Order Five-Offer Well</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5444,32 +5554,17 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Camera Front-Free Financial</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Back Radio-System Practice</t>
+          <t>Concern Herself-Half Management</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Example Three-Audience Health</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>Product Hope-Open First</t>
+          <t>Drug Condition-Past Factor</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>Industry Police-Source Laugh</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>Draw Another-Me Next</t>
+          <t>Law Employee-Hair Paper</t>
         </is>
       </c>
     </row>
@@ -5479,64 +5574,59 @@
           <t>20-21</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Education Point-Those Nature</t>
-        </is>
-      </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Order Five-Lot Recent</t>
+          <t>Minute Always-Source Laugh</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Decision After-Reach Set</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Big Store-Reach Medical</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Their West-Side Former</t>
+          <t>Also Hold-Heavy Concern</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Different Economy-Product Hope</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Central Reason-Test Gun</t>
+          <t>Whom Social-Third Million</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Half Pattern-Morning Several</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Hair Paper-Prevent Read</t>
+          <t>After Morning-Bag Girl</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Rate Budget-Test Gun</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Wait Long-Board American</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Property Stop-Unit Budget</t>
+          <t>Officer Six-Natural Might</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>East Well-Time Management</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Policy Write-Produce Early</t>
+          <t>Arm Nature-Morning Several</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>System New-Camera Recently</t>
+          <t>None Explain-Source Decide</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Simple Training-Rate Leg</t>
         </is>
       </c>
     </row>
@@ -5548,72 +5638,67 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Simple Training-Everything Color</t>
+          <t>Two Some-Sort Method</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Condition Way-Down Threat</t>
+          <t>Decision After-Board American</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Add Than-Help Amount</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Serve Believe-Trial Meeting</t>
+          <t>Paper Camera-Resource Question</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Issue Together-Far Word</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Whom Social-Own No</t>
+          <t>Back Radio-Design Degree</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Design Degree-Sign Learn</t>
+          <t>Growth Military-Always Protect</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Notice World-Offer Well</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Agency Truth-Gas Husband</t>
+          <t>Agency Truth-Cover Manage</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Rate Billion-Sea Administration</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Ability Food-Message Describe</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Anyone Might-Suddenly Inside</t>
+          <t>Indeed Day-Somebody Product</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Sure Law-Look Six</t>
+          <t>Project Almost-Notice World</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Natural Wait-Yourself How</t>
+          <t>Produce Early-Side Former</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Seem How-Open First</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Our Second-Drug Condition</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>Rate Leg-Different Our</t>
+          <t>Serve Believe-Position Oil</t>
         </is>
       </c>
     </row>
@@ -5625,67 +5710,67 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Play Create-Yard Man</t>
+          <t>Save Over-Different Them</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Law Employee-Paper Camera</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Sense Follow-Rate Through</t>
+          <t>Anything Yes-Individual Could</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sense Follow-Really Seat</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Letter National-Rate Budget</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Yes Other-Shake Second</t>
+          <t>Involve Big-Sure Member</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Chair Point-Necessary Ask</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Also Tax-Half Management</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
+          <t>Especially Stuff-There Because</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Education Point-Suddenly Inside</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Short Property-Behind Coach</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Make Later-Town Feeling</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Discover Head-Down Threat</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Half Pattern-Less Determine</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Anyone Might-Those Nature</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
         <is>
           <t>More Seat-Town Challenge</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Admit Produce-Particular Such</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>National Talk-Race Seven</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>Time Management-Discover Head</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Evening Those-Government Majority</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>Company Car-Past Factor</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>Once Bill-Record Allow</t>
         </is>
       </c>
     </row>
@@ -5831,87 +5916,67 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Especially Stuff-Lot Recent</t>
+          <t>Property Stop-Unit Budget</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Detail Person-Green Religious</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Project Almost-Offer Well</t>
+          <t>Minute Always-Message Describe</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Position Oil-Fill Dark</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Rate Through-Yard Man</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>That Leader-Easy Exist</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Once Bill-Far Word</t>
+          <t>There Because-Wish Foot</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Two Some-Skill Support</t>
+          <t>Sure Member-Piece Party</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Concern Herself-Road Involve</t>
+          <t>Production Idea-Notice World</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Raise Call-System Practice</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Sure Member-Board American</t>
+          <t>Shake Suddenly-Once Bill</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Clearly Human-Back Radio</t>
+          <t>Central Reason-Matter Country</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Their Development-Reason During</t>
+          <t>Operation Scientist-Whom Social</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>None Explain-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>There Because-More Seat</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>Their West-Fill Dark</t>
+          <t>Still Race-Region Begin</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>Admit Produce-Individual Could</t>
+          <t>Also Tax-Shake Second</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>Play Nature-Record Allow</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>Maintain South-Help Amount</t>
+          <t>Their Development-Try Stand</t>
         </is>
       </c>
     </row>
@@ -5923,52 +5988,47 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Central Reason-Matter Country</t>
+          <t>Our Second-Expert Everyone</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Region Begin-Anything Yes</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Company Car-Evening Those</t>
+          <t>Education Hit-Stock Measure</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Race Seven-Free Financial</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Operation Scientist-Issue Together</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Simply Industry-Past Factor</t>
+          <t>Attorney Travel-Always Protect</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Question Finally-Government Majority</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Town Feeling-Reveal Today</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>State Baby-Notice World</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>After Morning-Yes Other</t>
+          <t>Less Determine-Somebody Product</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Different Our-Series Recently</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Government Majority-Difference Throughout</t>
+          <t>Involve Big-Wait Long</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Better Environmental-Third Million</t>
+          <t>Opportunity Kind-Prevent Read</t>
         </is>
       </c>
     </row>
@@ -5980,62 +6040,62 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Law Employee-Stock Measure</t>
+          <t>Agency Truth-Back Radio</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Make Later-Indeed Day</t>
+          <t>Can Control-Source Decide</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Republican Continue-Expert Everyone</t>
+          <t>Draw Another-Law Employee</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Necessary Ask-Sound Television</t>
+          <t>System Practice-Data Scene</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Paper Camera-Me Next</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Order Five-Production Idea</t>
+          <t>Easy Exist-Sort Method</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Yes Other-Bag Girl</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Health Start-Time Management</t>
+          <t>Admit Produce-Individual Could</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Wish Foot-Town Challenge</t>
+          <t>Night Today-Time Management</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>At Could-Fish Couple</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>Kind Blood-Free Financial</t>
+          <t>Impact Fire-Their West</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Beyond Above-Own No</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Sense Follow-Source Laugh</t>
+          <t>None Explain-Trial Meeting</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Good Cup-Race Seven</t>
+          <t>Add Than-Natural Wait</t>
         </is>
       </c>
     </row>
@@ -6045,54 +6105,74 @@
           <t>20-21</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Rate Leg-Everything Color</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Policy Write-Side Former</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Anyone Might-Do Board</t>
+          <t>Play Create-Source Laugh</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Save Over-Reveal Today</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Big Store-Night Today</t>
+          <t>Health Start-Sea Administration</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Impact Fire-Policy Write</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Ability Food-System New</t>
+          <t>After Morning-Within Least</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Add Than-Ever Material</t>
+          <t>Republican Continue-Past Factor</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Education Point-Natural Might</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Drive Executive-Question Finally</t>
+          <t>Detail Person-Me Must</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Also Hold-Piece Party</t>
+          <t>Reach Medical-Discover Head</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Behind Coach-Example Three</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Evening Those-Simply Industry</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>East Well-Sea Administration</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>Top Member-Audience Health</t>
+          <t>Bill Minute-Good Cup</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Two Some-Effort Rather</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Sense Follow-Camera Recently</t>
         </is>
       </c>
     </row>
@@ -6102,74 +6182,69 @@
           <t>21-22</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Morning Several-See To</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Whom Social-Shake Suddenly</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Beyond Above-Own No</t>
+          <t>Green Religious-Test Gun</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Heavy Concern-Wait Long</t>
+          <t>That Leader-Fish Couple</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Short Property-Natural Wait</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Sign Learn-Cover Manage</t>
+          <t>Clearly Human-Sign Learn</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Better Environmental-Play Nature</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Candidate Home-Me Must</t>
+          <t>Drive Executive-Difference Throughout</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Rate Billion-Discover Head</t>
+          <t>Particular Such-Anything Yes</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Officer Six-Series Recently</t>
+          <t>Company Car-Drug Condition</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Rate Budget-Have Full</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>National Talk-Look Six</t>
+          <t>State Baby-Town Challenge</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Necessary Ask-Reach Set</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Two Standard-Particular Such</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Property Stop-Camera Front</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>Serve Believe-Side Former</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>Message Describe-Play Create</t>
+          <t>Do Board-Natural Might</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Rate Billion-Summer Without</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Maintain South-Top Member</t>
         </is>
       </c>
     </row>
@@ -6179,79 +6254,74 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Rate Through-Camera Recently</t>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>National Talk-Look Six</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Bill Minute-Specific Goal</t>
+          <t>Heavy Concern-Board American</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Opportunity Kind-Why Budget</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Can Control-Produce Early</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Draw Another-Prevent Read</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Minute Always-Really Seat</t>
+          <t>Ever Material-Audience Health</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Letter National-Rate Budget</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Morning Several-Somebody Product</t>
+          <t>Simple Training-Those Nature</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Everything Color-Those Nature</t>
+          <t>Anyone Might-Education Point</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Growth Military-Always Protect</t>
+          <t>Concern Herself-Growth Military</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Gas Husband-Design Degree</t>
+          <t>Kind Blood-Camera Front</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Position Oil-Source Decide</t>
+          <t>Maybe Modern-Cover Manage</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Save Over-See To</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>Sort Method-Seem How</t>
+          <t>Product Hope-Open First</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Attorney Travel-Also Tax</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>When Less-Try Stand</t>
+          <t>Industry Police-System New</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Arm Nature-Different Them</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Paper Camera-Me Next</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Record Allow-Far Word</t>
         </is>
       </c>
     </row>
@@ -6395,14 +6465,19 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Involve Big-Reach Set</t>
-        </is>
-      </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>State Baby-Town Challenge</t>
+          <t>Education Hit-Hair Paper</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Night Today-Reach Medical</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Bag Girl-Within Least</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6425,49 +6500,49 @@
           <t>X</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Make Later-Different Them</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Add Than-Maintain South</t>
+          <t>Chair Point-Wait Long</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Within Least-Shake Second</t>
+          <t>Beyond Above-Whom Social</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Raise Call-Sign Learn</t>
+          <t>Lot Recent-Offer Well</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Ability Food-Minute Always</t>
+          <t>Bill Minute-Sure Law</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Education Point-Different Our</t>
+          <t>Two Standard-Reason During</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Night Today-Down Threat</t>
+          <t>Stock Measure-Prevent Read</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>Short North-Yourself How</t>
+          <t>Operation Scientist-Far Word</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Shake Suddenly-Own No</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>Operation Scientist-Play Nature</t>
+          <t>Expert Everyone-Past Factor</t>
         </is>
       </c>
     </row>
@@ -6477,19 +6552,14 @@
           <t>18-19</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>More Seat-Project Almost</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Good Cup-Unit Budget</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Me Must-Test Gun</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Health Start-Reach Medical</t>
+          <t>Short Property-Example Three</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6514,47 +6584,52 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Really Seat-Yard Man</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Arm Nature-Indeed Day</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Agency Truth-Data Scene</t>
+          <t>Agency Truth-Clearly Human</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Green Religious-Minute Citizen</t>
+          <t>Yourself How-Help Amount</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Somebody Product-See To</t>
+          <t>Series Recently-Those Nature</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Different Economy-Seem How</t>
+          <t>Ability Food-Rate Through</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Everything Color-Natural Might</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>Gas Husband-Week Board</t>
+          <t>Short North-Ever Material</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Play Create-System New</t>
+          <t>Half Pattern-Somebody Product</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Why Budget-Resource Question</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Me Next-Opportunity Kind</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Free Financial-Look Six</t>
+          <t>Policy Write-Serve Believe</t>
         </is>
       </c>
     </row>
@@ -6566,17 +6641,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Big Store-Rate Billion</t>
+          <t>Detail Person-Green Religious</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Short Property-Example Three</t>
+          <t>Decision After-Reach Set</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Our Second-Evening Those</t>
+          <t>National Talk-Kind Blood</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Matter Country-Have Full</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6601,27 +6681,57 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>More Seat-Production Idea</t>
+          <t>Anyone Might-Suddenly Inside</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>State Baby-Notice World</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Candidate Home-Minute Citizen</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Yes Other-Road Involve</t>
+          <t>Maybe Modern-Sign Learn</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Raise Call-Design Degree</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Try Stand-Anything Yes</t>
+          <t>Attorney Travel-Growth Military</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Half Management-Road Involve</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Fish Couple-Effort Rather</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Produce Early-Source Decide</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>Admit Produce-Their Development</t>
+          <t>Involve Big-Necessary Ask</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>Can Control-Fill Dark</t>
+          <t>Education Point-Do Board</t>
         </is>
       </c>
     </row>
@@ -6633,12 +6743,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Law Employee-Hair Paper</t>
+          <t>Order Five-There Because</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Especially Stuff-Production Idea</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Education Hit-Me Next</t>
+          <t>Different Economy-Sort Method</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6663,52 +6778,47 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Sure Law-Race Seven</t>
+          <t>Indeed Day-Town Feeling</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Letter National-Matter Country</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Simple Training-Series Recently</t>
+          <t>Company Car-Republican Continue</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Rate Leg-Natural Might</t>
+          <t>Issue Together-Own No</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Make Later-Save Over</t>
+          <t>Evening Those-Drug Condition</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Particular Such-Do Than</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>Anyone Might-Those Nature</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>Do Board-Suddenly Inside</t>
+          <t>Specific Goal-Look Six</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Minute Always-Really Seat</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>Drug Condition-Simply Industry</t>
+          <t>Also Hold-Sound Television</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Law Employee-Paper Camera</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Why Budget-Prevent Read</t>
+          <t>Seem How-Product Hope</t>
         </is>
       </c>
     </row>
@@ -6720,17 +6830,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Still Race-Two Standard</t>
+          <t>Morning Several-Save Over</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>At Could-That Leader</t>
+          <t>Piece Party-Board American</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Sort Method-Product Hope</t>
+          <t>Particular Such-Do Than</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Gas Husband-Week Board</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6755,37 +6870,42 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Bill Minute-National Talk</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Chair Point-Decision After</t>
+          <t>Condition Way-Time Management</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>There Because-Notice World</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Natural Wait-Audience Health</t>
+          <t>East Well-Health Start</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>System Practice-Cover Manage</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Clearly Human-System Practice</t>
+          <t>When Less-Anything Yes</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Wish Foot-Project Almost</t>
+          <t>Rate Billion-Down Threat</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Sense Follow-Play Create</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Add Than-Audience Health</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>Position Oil-None Explain</t>
+          <t>Camera Front-Free Financial</t>
         </is>
       </c>
     </row>
@@ -6797,12 +6917,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Different Them-Reveal Today</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Sound Television-Board American</t>
+          <t>Skill Support-Open First</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Sea Administration-Summer Without</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6825,49 +6945,44 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Half Pattern-Less Determine</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Condition Way-Summer Without</t>
-        </is>
-      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Behind Coach-Top Member</t>
+          <t>Officer Six-Rate Leg</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Half Management-Always Protect</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Effort Rather-Open First</t>
+          <t>After Morning-Always Protect</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>That Leader-Easy Exist</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Still Race-Their Development</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>Bag Girl-Growth Military</t>
+          <t>Third Million-Record Allow</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Policy Write-Their West</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>Fish Couple-Skill Support</t>
+          <t>Admit Produce-Try Stand</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Impact Fire-None Explain</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Better Environmental-Record Allow</t>
+          <t>At Could-Two Some</t>
         </is>
       </c>
     </row>
@@ -7013,57 +7128,72 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Property Stop-Sure Law</t>
+          <t>Involve Big-Heavy Concern</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Can Control-Serve Believe</t>
+          <t>Property Stop-Kind Blood</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Impact Fire-Produce Early</t>
+          <t>Short Property-Maintain South</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Minute Always-Message Describe</t>
+          <t>Can Control-Their West</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Better Environmental-Record Allow</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Education Hit-Paper Camera</t>
+          <t>Condition Way-Rate Billion</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Really Seat-Camera Recently</t>
+          <t>Back Radio-Gas Husband</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Bill Minute-Kind Blood</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Especially Stuff-Project Almost</t>
+          <t>Beyond Above-Play Nature</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Green Religious-Me Must</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Order Five-Production Idea</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>State Baby-Wish Foot</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Add Than-Help Amount</t>
+          <t>Attorney Travel-Road Involve</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>Draw Another-Hair Paper</t>
+          <t>Natural Wait-Example Three</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>Anyone Might-Officer Six</t>
+          <t>Week Board-Cover Manage</t>
         </is>
       </c>
     </row>
@@ -7075,67 +7205,47 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Try Stand-Particular Such</t>
+          <t>National Talk-Unit Budget</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Candidate Home-Rate Budget</t>
+          <t>Also Hold-Sure Member</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Rate Billion-Sea Administration</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Clearly Human-Cover Manage</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Rate Through-Source Laugh</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Operation Scientist-Once Bill</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Central Reason-Green Religious</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>When Less-Two Standard</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Beyond Above-Third Million</t>
+          <t>Especially Stuff-Town Challenge</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Concern Herself-Shake Second</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Their West-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>Sort Method-Effort Rather</t>
+          <t>Ability Food-Message Describe</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Morning Several-Save Over</t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>After Morning-Within Least</t>
+          <t>Yes Other-Always Protect</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Top Member-Audience Health</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Simple Training-Different Our</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Question Finally-Past Factor</t>
         </is>
       </c>
     </row>
@@ -7147,77 +7257,87 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Reach Medical-Discover Head</t>
+          <t>When Less-Particular Such</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Me Must-Have Full</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Condition Way-Time Management</t>
+          <t>Company Car-Evening Those</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Me Next-Stock Measure</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Also Tax-Growth Military</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Law Employee-Me Next</t>
+          <t>Industry Police-Yard Man</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>System New-Source Laugh</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Side Former-Source Decide</t>
+          <t>Chair Point-Sound Television</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>National Talk-Good Cup</t>
+          <t>Less Determine-Town Feeling</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Letter National-Detail Person</t>
+          <t>Candidate Home-Central Reason</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Those Nature-Natural Might</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Natural Wait-Ever Material</t>
+          <t>Detail Person-Minute Citizen</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Yourself How-Top Member</t>
+          <t>Notice World-Offer Well</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Less Determine-Different Them</t>
+          <t>Product Hope-Effort Rather</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Shake Suddenly-Far Word</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>Road Involve-Always Protect</t>
+          <t>Policy Write-Fill Dark</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Question Finally-Republican Continue</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>Sure Member-Sound Television</t>
+          <t>Anyone Might-Rate Leg</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>Simple Training-Natural Might</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>Two Some-Product Hope</t>
+          <t>Series Recently-Suddenly Inside</t>
         </is>
       </c>
     </row>
@@ -7227,74 +7347,74 @@
           <t>20-21</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Region Begin-Individual Could</t>
-        </is>
-      </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Order Five-State Baby</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Camera Front-Race Seven</t>
+          <t>Rate Budget-Have Full</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Their Development-Do Than</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bag Girl-Half Management</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Agency Truth-Week Board</t>
+          <t>Rate Through-Really Seat</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Decision After-Board American</t>
+          <t>Third Million-Once Bill</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Concern Herself-Shake Second</t>
+          <t>Sea Administration-Discover Head</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Piece Party-Necessary Ask</t>
+          <t>Lot Recent-Project Almost</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Better Environmental-Whom Social</t>
+          <t>Agency Truth-System Practice</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Expert Everyone-Past Factor</t>
+          <t>Wait Long-Decision After</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Drive Executive-Expert Everyone</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Also Tax-Growth Military</t>
+          <t>At Could-Skill Support</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Shake Suddenly-Far Word</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>Everything Color-Series Recently</t>
+          <t>Ever Material-Help Amount</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Education Hit-Prevent Read</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Evening Those-Simply Industry</t>
+          <t>Region Begin-Reason During</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Position Oil-Side Former</t>
         </is>
       </c>
     </row>
@@ -7306,77 +7426,57 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Why Budget-Resource Question</t>
+          <t>Arm Nature-Save Over</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Seem How-Open First</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>None Explain-Fill Dark</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Chair Point-Heavy Concern</t>
+          <t>Officer Six-Everything Color</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Half Pattern-Somebody Product</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Back Radio-Design Degree</t>
+          <t>Somebody Product-Different Them</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Hair Paper-Paper Camera</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>East Well-Night Today</t>
+          <t>Our Second-Difference Throughout</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Our Second-Government Majority</t>
+          <t>Drug Condition-Simply Industry</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Short North-Behind Coach</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Lot Recent-Notice World</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>Education Point-Do Board</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>Different Economy-That Leader</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>Admit Produce-Reason During</t>
+          <t>Add Than-Behind Coach</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Design Degree-Data Scene</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Half Pattern-See To</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>Wait Long-Reach Set</t>
+          <t>Serve Believe-Trial Meeting</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Easy Exist-Fish Couple</t>
+          <t>Easy Exist-Seem How</t>
         </is>
       </c>
     </row>
@@ -7388,62 +7488,57 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Company Car-Difference Throughout</t>
+          <t>Make Later-Reveal Today</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Rate Leg-Those Nature</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Specific Goal-Look Six</t>
+          <t>Republican Continue-Government Majority</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Opportunity Kind-Stock Measure</t>
+          <t>Camera Front-Race Seven</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Unit Budget-Free Financial</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Raise Call-Data Scene</t>
+          <t>Night Today-Summer Without</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Maybe Modern-System Practice</t>
+          <t>Free Financial-Look Six</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Sense Follow-Yard Man</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Drive Executive-Drug Condition</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>Issue Together-Own No</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>Wish Foot-Offer Well</t>
-        </is>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>Indeed Day-See To</t>
+          <t>Good Cup-Specific Goal</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Try Stand-Individual Could</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Clearly Human-Raise Call</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Letter National-Matter Country</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Play Create-Camera Recently</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Draw Another-Opportunity Kind</t>
         </is>
       </c>
     </row>
@@ -7587,64 +7682,44 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Make Later-Half Pattern</t>
-        </is>
-      </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Night Today-Reach Medical</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Sure Member-Decision After</t>
+          <t>Question Finally-Evening Those</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Impact Fire-Serve Believe</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Two Some-Easy Exist</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Yourself How-Audience Health</t>
+          <t>Order Five-Project Almost</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Better Environmental-Far Word</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Green Religious-Matter Country</t>
+          <t>Officer Six-Do Board</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Design Degree-Data Scene</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>Big Store-Summer Without</t>
-        </is>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>Chair Point-Involve Big</t>
+          <t>Wait Long-Sound Television</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Operation Scientist-Record Allow</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>Lot Recent-State Baby</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>Minute Always-Rate Through</t>
+          <t>Ability Food-Really Seat</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Two Standard-Particular Such</t>
         </is>
       </c>
     </row>
@@ -7656,47 +7731,62 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Indeed Day-Reveal Today</t>
+          <t>Company Car-Government Majority</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Education Point-Everything Color</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Republican Continue-Drug Condition</t>
+          <t>Matter Country-Minute Citizen</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Issue Together-Once Bill</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Necessary Ask-Decision After</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Maintain South-Ever Material</t>
+          <t>Maybe Modern-Gas Husband</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Impact Fire-Trial Meeting</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Series Recently-Natural Might</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>Maybe Modern-Sign Learn</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>Different Our-Those Nature</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>Stock Measure-Resource Question</t>
+          <t>Bill Minute-Race Seven</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Minute Always-Play Create</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Sure Law-Unit Budget</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Education Point-Those Nature</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Also Hold-Chair Point</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>Region Begin-Particular Such</t>
+          <t>Big Store-Condition Way</t>
         </is>
       </c>
     </row>
@@ -7706,69 +7796,74 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Race Seven-Unit Budget</t>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Still Race-Anything Yes</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Offer Well-Town Challenge</t>
+          <t>Rate Leg-Different Our</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Question Finally-Difference Throughout</t>
+          <t>Night Today-Discover Head</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Better Environmental-Beyond Above</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Arm Nature-Morning Several</t>
+          <t>Half Management-Shake Second</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Paper Camera-Prevent Read</t>
+          <t>Their West-Produce Early</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Health Start-Rate Billion</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Their Development-Anything Yes</t>
+          <t>Simple Training-Everything Color</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Government Majority-Past Factor</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>Help Amount-Example Three</t>
-        </is>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>Position Oil-Trial Meeting</t>
+          <t>System Practice-Design Degree</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Maintain South-Ever Material</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Especially Stuff-Wish Foot</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Sort Method-Skill Support</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Different Economy-Fish Couple</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>Company Car-Our Second</t>
+          <t>Piece Party-Reach Set</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>Also Tax-Road Involve</t>
-        </is>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>Message Describe-Camera Recently</t>
+          <t>Bag Girl-Growth Military</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7875,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Kind Blood-Specific Goal</t>
+          <t>More Seat-Production Idea</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7788,59 +7883,74 @@
           <t>X</t>
         </is>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Sense Follow-Industry Police</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Produce Early-Fill Dark</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Health Start-Sea Administration</t>
+          <t>Two Some-That Leader</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Raise Call-Cover Manage</t>
+          <t>Our Second-Past Factor</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Piece Party-Wait Long</t>
+          <t>Detail Person-Have Full</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Rate Leg-Suddenly Inside</t>
+          <t>Drive Executive-Republican Continue</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>There Because-Notice World</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Third Million-Far Word</t>
+          <t>After Morning-Road Involve</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Behind Coach-Yourself How</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>Somebody Product-Save Over</t>
+          <t>Arm Nature-Somebody Product</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>East Well-Time Management</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>Order Five-Wish Foot</t>
+          <t>Can Control-None Explain</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Education Hit-Resource Question</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Town Feeling-Different Them</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Admit Produce-Reason During</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>Necessary Ask-Reach Set</t>
-        </is>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>Still Race-Individual Could</t>
+          <t>Short Property-Audience Health</t>
         </is>
       </c>
     </row>
@@ -7850,64 +7960,59 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>More Seat-Notice World</t>
-        </is>
-      </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>At Could-Open First</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Can Control-None Explain</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Test Gun-Have Full</t>
+          <t>Effort Rather-Open First</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Source Laugh-Yard Man</t>
+          <t>Sure Member-Board American</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Draw Another-Prevent Read</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Expert Everyone-Difference Throughout</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Once Bill-Play Nature</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>When Less-Do Than</t>
+          <t>Half Pattern-Morning Several</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Sign Learn-Week Board</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Rate Billion-Down Threat</t>
+          <t>East Well-Down Threat</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Lot Recent-State Baby</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>That Leader-Skill Support</t>
-        </is>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>Agency Truth-Back Radio</t>
+          <t>National Talk-Specific Goal</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Sense Follow-System New</t>
+          <t>Whom Social-Own No</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>Own No-Record Allow</t>
+          <t>Property Stop-Free Financial</t>
         </is>
       </c>
     </row>
@@ -7917,79 +8022,64 @@
           <t>22-23</t>
         </is>
       </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Me Next-Why Budget</t>
+        </is>
+      </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Detail Person-Minute Citizen</t>
+          <t>Source Laugh-Yard Man</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Reach Medical-Summer Without</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Product Hope-Effort Rather</t>
+          <t>Try Stand-Do Than</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bag Girl-Shake Second</t>
+          <t>Short North-Example Three</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Drive Executive-Simply Industry</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Ability Food-Play Create</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Town Feeling-See To</t>
+          <t>Message Describe-Rate Through</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Operation Scientist-Whom Social</t>
+          <t>Kind Blood-Look Six</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>National Talk-Sure Law</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>There Because-Production Idea</t>
+          <t>Sea Administration-Time Management</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Clearly Human-Gas Husband</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>Bill Minute-Camera Front</t>
+          <t>Make Later-Indeed Day</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Yes Other-Growth Military</t>
-        </is>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>After Morning-Always Protect</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>Add Than-Short Property</t>
+          <t>Within Least-Always Protect</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Less Determine-See To</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>Concern Herself-Half Management</t>
+          <t>Fill Dark-Side Former</t>
         </is>
       </c>
     </row>
@@ -8133,49 +8223,64 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Can Control-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Behind Coach-Yourself How</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Town Feeling-Save Over</t>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Me Next-Resource Question</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Piece Party-Decision After</t>
+          <t>Make Later-Save Over</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Third Million-Far Word</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Yourself How-Top Member</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Simple Training-Do Board</t>
+          <t>Our Second-Simply Industry</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Two Some-Seem How</t>
+          <t>Back Radio-Cover Manage</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Arm Nature-Somebody Product</t>
+          <t>Easy Exist-Open First</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>Raise Call-System Practice</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Good Cup-Look Six</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Fish Couple-Open First</t>
+          <t>Morning Several-Reveal Today</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>Industry Police-Camera Recently</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Beyond Above-Issue Together</t>
+          <t>Operation Scientist-Own No</t>
         </is>
       </c>
     </row>
@@ -8187,57 +8292,57 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hair Paper-Stock Measure</t>
+          <t>Impact Fire-Policy Write</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Sense Follow-Play Create</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Try Stand-Individual Could</t>
+          <t>Two Some-Product Hope</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Their West-Source Decide</t>
+          <t>Shake Suddenly-Play Nature</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Sense Follow-Rate Through</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Draw Another-Paper Camera</t>
+          <t>Gas Husband-Data Scene</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Necessary Ask-Board American</t>
+          <t>Education Point-Series Recently</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Big Store-Discover Head</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Green Religious-Test Gun</t>
+          <t>Central Reason-Have Full</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>More Seat-Offer Well</t>
+          <t>Yes Other-Growth Military</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Yes Other-Also Tax</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>Short North-Top Member</t>
+          <t>When Less-Do Than</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Question Finally-Republican Continue</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>Within Least-Shake Second</t>
         </is>
       </c>
     </row>
@@ -8247,69 +8352,44 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Rate Budget-Me Must</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Also Hold-Heavy Concern</t>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Serve Believe-Side Former</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Minute Always-System New</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Night Today-Time Management</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Health Start-Down Threat</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>At Could-Sort Method</t>
+          <t>Chair Point-Piece Party</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Own No-Play Nature</t>
+          <t>Also Hold-Decision After</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Short Property-Audience Health</t>
+          <t>Position Oil-Trial Meeting</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Suddenly Inside-Natural Might</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Especially Stuff-Wish Foot</t>
+          <t>Sure Law-Race Seven</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Two Standard-Region Begin</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>Different Economy-Effort Rather</t>
+          <t>There Because-Offer Well</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>Sign Learn-Week Board</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>Serve Believe-None Explain</t>
+          <t>Message Describe-Source Laugh</t>
         </is>
       </c>
     </row>
@@ -8321,62 +8401,47 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>There Because-State Baby</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Education Hit-Resource Question</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Third Million-Once Bill</t>
+          <t>Candidate Home-Me Must</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Heavy Concern-Reach Set</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>After Morning-Half Management</t>
+          <t>That Leader-Skill Support</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Big Store-Sea Administration</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Natural Wait-Example Three</t>
+          <t>After Morning-Concern Herself</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Company Car-Expert Everyone</t>
+          <t>Wish Foot-Notice World</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Good Cup-Sure Law</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>Shake Suddenly-Record Allow</t>
+          <t>Do Board-Suddenly Inside</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Concern Herself-Within Least</t>
+          <t>Somebody Product-See To</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>Minute Always-Camera Recently</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>Opportunity Kind-Prevent Read</t>
-        </is>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>Drive Executive-Our Second</t>
+          <t>Add Than-Short North</t>
         </is>
       </c>
     </row>
@@ -8388,42 +8453,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Involve Big-Sound Television</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Morning Several-Different Them</t>
+          <t>Necessary Ask-Wait Long</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Expert Everyone-Drug Condition</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Rate Leg-Series Recently</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Ability Food-Really Seat</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Attorney Travel-Road Involve</t>
+          <t>Sound Television-Board American</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Draw Another-Paper Camera</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>Central Reason-Minute Citizen</t>
-        </is>
-      </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>Officer Six-Those Nature</t>
+          <t>Admit Produce-Anything Yes</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>Better Environmental-Far Word</t>
+          <t>Two Standard-Individual Could</t>
         </is>
       </c>
     </row>
@@ -8433,49 +8488,54 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Evening Those-Difference Throughout</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Fill Dark-Side Former</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Property Stop-Look Six</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Indeed Day-Less Determine</t>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Government Majority-Past Factor</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Camera Front-Unit Budget</t>
+          <t>Maybe Modern-Week Board</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Letter National-Minute Citizen</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Design Degree-Cover Manage</t>
+          <t>Attorney Travel-Bag Girl</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>National Talk-Free Financial</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
+          <t>Short Property-Help Amount</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Natural Wait-Behind Coach</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Opportunity Kind-Why Budget</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Also Tax-Always Protect</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Beyond Above-Issue Together</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
         <is>
           <t>Anyone Might-Everything Color</t>
-        </is>
-      </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>Condition Way-Reach Medical</t>
         </is>
       </c>
     </row>
@@ -8619,54 +8679,44 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>When Less-Their Development</t>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Our Second-Government Majority</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>There Because-Offer Well</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Yes Other-Always Protect</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Maybe Modern-Gas Husband</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Different Our-Suddenly Inside</t>
+          <t>Lot Recent-Notice World</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Short North-Behind Coach</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Matter Country-Minute Citizen</t>
+          <t>Operation Scientist-Third Million</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Make Later-Different Them</t>
+          <t>Bill Minute-Kind Blood</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Ability Food-Rate Through</t>
-        </is>
-      </c>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>Also Tax-Shake Second</t>
-        </is>
-      </c>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>Impact Fire-Side Former</t>
+          <t>Ability Food-System New</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Reach Medical-Sea Administration</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Short Property-Top Member</t>
         </is>
       </c>
     </row>
@@ -8676,54 +8726,29 @@
           <t>18-19</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Government Majority-Expert Everyone</t>
-        </is>
-      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Green Religious-Have Full</t>
+          <t>Play Create-Yard Man</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Short Property-Short North</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Whom Social-Record Allow</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Attorney Travel-Within Least</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>That Leader-Effort Rather</t>
-        </is>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>Drive Executive-Difference Throughout</t>
+          <t>Serve Believe-Fill Dark</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Officer Six-Different Our</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Different Economy-Open First</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>Different Economy-Easy Exist</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>Company Car-Question Finally</t>
-        </is>
-      </c>
-      <c r="U124" t="inlineStr">
-        <is>
-          <t>Beyond Above-Play Nature</t>
+          <t>Yourself How-Example Three</t>
         </is>
       </c>
     </row>
@@ -8735,32 +8760,37 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Add Than-Example Three</t>
+          <t>Time Management-Down Threat</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Big Store-Health Start</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Save Over-Reveal Today</t>
+          <t>Project Almost-Offer Well</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Good Cup-Free Financial</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Ever Material-Yourself How</t>
-        </is>
-      </c>
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>Try Stand-Do Than</t>
-        </is>
-      </c>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>Heavy Concern-Reach Set</t>
+          <t>Growth Military-Within Least</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Anyone Might-Series Recently</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Arm Nature-Less Determine</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>Also Hold-Necessary Ask</t>
         </is>
       </c>
     </row>
@@ -8772,57 +8802,47 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Specific Goal-Race Seven</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Help Amount-Audience Health</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Produce Early-Source Decide</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>National Talk-Unit Budget</t>
+          <t>Yes Other-Half Management</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Paper Camera-Opportunity Kind</t>
+          <t>Whom Social-Once Bill</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Especially Stuff-Order Five</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Night Today-Rate Billion</t>
+          <t>Back Radio-Week Board</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Officer Six-Simple Training</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>Central Reason-Detail Person</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>At Could-Product Hope</t>
+          <t>Drive Executive-Drug Condition</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Big Store-Night Today</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>East Well-Rate Billion</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Try Stand-Particular Such</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>System New-Really Seat</t>
+          <t>Minute Always-Camera Recently</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>Republican Continue-Simply Industry</t>
         </is>
       </c>
     </row>
@@ -8832,49 +8852,44 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Two Standard-Individual Could</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Condition Way-Discover Head</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Industry Police-Camera Recently</t>
-        </is>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Still Race-Anything Yes</t>
+          <t>Admit Produce-Do Than</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Reach Medical-Summer Without</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>Data Scene-Sign Learn</t>
+          <t>Maintain South-Natural Wait</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>East Well-Down Threat</t>
-        </is>
-      </c>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>Better Environmental-Once Bill</t>
+          <t>Still Race-Reason During</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Simple Training-Do Board</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Raise Call-Maybe Modern</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Rate Leg-Education Point</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>Beyond Above-Far Word</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Sort Method-Fish Couple</t>
+          <t>Piece Party-Decision After</t>
         </is>
       </c>
     </row>
@@ -8884,39 +8899,24 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>Sure Member-Necessary Ask</t>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Order Five-More Seat</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Town Feeling-Somebody Product</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Production Idea-Town Challenge</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Wait Long-Sound Television</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>Republican Continue-Simply Industry</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>Operation Scientist-Shake Suddenly</t>
+          <t>Bag Girl-Shake Second</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>Draw Another-Resource Question</t>
-        </is>
-      </c>
-      <c r="U128" t="inlineStr">
-        <is>
-          <t>Minute Always-Sense Follow</t>
+          <t>Condition Way-Health Start</t>
         </is>
       </c>
     </row>

--- a/best_draw_output_from_evolutionary.xlsx
+++ b/best_draw_output_from_evolutionary.xlsx
@@ -569,54 +569,49 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ability Food-Camera Recently</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Different Our-Everything Color</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unit Budget-Look Six</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Road Involve-Growth Military</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Issue Together-Record Allow</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Agency Truth-Design Degree</t>
+          <t>Town Feeling-Different Them</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Maintain South-Short North</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Own No-Play Nature</t>
+          <t>Health Start-Down Threat</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Government Majority-Simply Industry</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Anything Yes-Reason During</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Rate Budget-Green Religious</t>
+          <t>Ability Food-System New</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Different Economy-Easy Exist</t>
+          <t>That Leader-Sort Method</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Especially Stuff-State Baby</t>
+          <t>Seem How-Skill Support</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Add Than-Help Amount</t>
         </is>
       </c>
     </row>
@@ -626,44 +621,24 @@
           <t>18-19</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Hair Paper-Stock Measure</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Education Hit-Law Employee</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Also Tax-Half Management</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Especially Stuff-There Because</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Night Today-Rate Billion</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>When Less-Region Begin</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Indeed Day-Reveal Today</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Their Development-Reason During</t>
+          <t>Agency Truth-Cover Manage</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Yes Other-Attorney Travel</t>
+          <t>Short North-Audience Health</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Different Our-Series Recently</t>
         </is>
       </c>
     </row>
@@ -673,44 +648,44 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>None Explain-Produce Early</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Big Store-Down Threat</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Involve Big-Reach Set</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>System Practice-Sign Learn</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Sure Law-Specific Goal</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Our Second-Evening Those</t>
+          <t>Condition Way-Discover Head</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Their Development-Do Than</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Rate Leg-Suddenly Inside</t>
+          <t>Policy Write-Produce Early</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Gas Husband-Week Board</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Help Amount-Audience Health</t>
+          <t>Concern Herself-Road Involve</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Question Finally-Drug Condition</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Republican Continue-Difference Throughout</t>
+          <t>Race Seven-Free Financial</t>
         </is>
       </c>
     </row>
@@ -720,39 +695,44 @@
           <t>20-21</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Their West-Source Decide</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Company Car-Question Finally</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Make Later-Less Determine</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>At Could-That Leader</t>
+          <t>Big Store-Rate Billion</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Central Reason-Test Gun</t>
+          <t>More Seat-Project Almost</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Ever Material-Top Member</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Bill Minute-Unit Budget</t>
+          <t>Company Car-Evening Those</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Everything Color-Suddenly Inside</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Seem How-Skill Support</t>
+          <t>Serve Believe-Source Decide</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Industry Police-Yard Man</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Third Million-Far Word</t>
         </is>
       </c>
     </row>
@@ -762,39 +742,34 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Officer Six-Simple Training</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Still Race-Two Standard</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Condition Way-Sea Administration</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Back Radio-Data Scene</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Sort Method-Effort Rather</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Shake Suddenly-Third Million</t>
+          <t>Chair Point-Wait Long</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Position Oil-Side Former</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Beyond Above-Issue Together</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Natural Wait-Ever Material</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Add Than-Yourself How</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>National Talk-Good Cup</t>
+          <t>Bill Minute-National Talk</t>
         </is>
       </c>
     </row>
@@ -806,52 +781,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chair Point-Heavy Concern</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Production Idea-Wish Foot</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Message Describe-Yard Man</t>
+          <t>Our Second-Expert Everyone</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Property Stop-Camera Front</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Kind Blood-Free Financial</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Letter National-Me Must</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Can Control-Position Oil</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Series Recently-Natural Might</t>
+          <t>Raise Call-Data Scene</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Try Stand-Individual Could</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Bag Girl-Also Tax</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Arm Nature-Half Pattern</t>
+          <t>At Could-Effort Rather</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Fill Dark-Trial Meeting</t>
+          <t>Easy Exist-Product Hope</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Their West-Fill Dark</t>
         </is>
       </c>
     </row>
@@ -997,42 +957,57 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kind Blood-Race Seven</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Minute Always-Sense Follow</t>
+          <t>Save Over-Different Them</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bill Minute-Race Seven</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Detail Person-Matter Country</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Do Than-Individual Could</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Why Budget-Stock Measure</t>
+          <t>Difference Throughout-Drug Condition</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Green Religious-Me Must</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Agency Truth-Sign Learn</t>
+          <t>Order Five-Wish Foot</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Unit Budget-Free Financial</t>
+          <t>Third Million-Play Nature</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Impact Fire-Source Decide</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bag Girl-Also Tax</t>
+          <t>Gas Husband-Design Degree</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Issue Together-Third Million</t>
+          <t>Draw Another-Paper Camera</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Piece Party-Heavy Concern</t>
         </is>
       </c>
     </row>
@@ -1042,49 +1017,54 @@
           <t>18-19</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Question Finally-Expert Everyone</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sort Method-Seem How</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Lot Recent-Project Almost</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Agency Truth-Raise Call</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Do Board-Series Recently</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>System New-Really Seat</t>
+          <t>Free Financial-Look Six</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Source Decide-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>After Morning-Shake Second</t>
+          <t>Industry Police-Play Create</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>East Well-Sea Administration</t>
+          <t>Always Protect-Shake Second</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Add Than-Maintain South</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Me Must-Test Gun</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Health Start-Discover Head</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>When Less-Two Standard</t>
+          <t>After Morning-Within Least</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Necessary Ask-Board American</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Policy Write-Their West</t>
         </is>
       </c>
     </row>
@@ -1094,54 +1074,59 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>None Explain-Side Former</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Sound Television-Reach Set</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Big Store-Summer Without</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Different Economy-Fish Couple</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Time Management-Summer Without</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Letter National-Test Gun</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>National Talk-Property Stop</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Condition Way-Down Threat</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Education Point-Different Our</t>
+          <t>State Baby-Notice World</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Sign Learn-Cover Manage</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Add Than-Audience Health</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Impact Fire-Position Oil</t>
+          <t>Anyone Might-Suddenly Inside</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Clearly Human-Back Radio</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Specific Goal-Camera Front</t>
+          <t>National Talk-Camera Front</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Drive Executive-Our Second</t>
+          <t>Indeed Day-Less Determine</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Sure Member-Heavy Concern</t>
+          <t>Skill Support-Open First</t>
         </is>
       </c>
     </row>
@@ -1151,69 +1136,39 @@
           <t>20-21</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Arm Nature-Reveal Today</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Central Reason-Green Religious</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Maybe Modern-Data Scene</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Better Environmental-Operation Scientist</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Product Hope-Skill Support</t>
+          <t>Produce Early-Fill Dark</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Big Store-Discover Head</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Involve Big-Board American</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Concern Herself-Road Involve</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Short Property-Natural Wait</t>
+          <t>Involve Big-Sound Television</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Night Today-Health Start</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Half Management-Growth Military</t>
+          <t>Make Later-Town Feeling</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Good Cup-Sure Law</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Candidate Home-Rate Budget</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>State Baby-Offer Well</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Indeed Day-Less Determine</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Data Scene-Cover Manage</t>
+          <t>Also Tax-Road Involve</t>
         </is>
       </c>
     </row>
@@ -1225,47 +1180,52 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Seem How-Fish Couple</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Behind Coach-Help Amount</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Reach Medical-Time Management</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Also Hold-Wait Long</t>
+          <t>Can Control-Position Oil</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Clearly Human-Design Degree</t>
+          <t>Two Some-That Leader</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Town Feeling-Save Over</t>
+          <t>Ever Material-Top Member</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Two Standard-Reason During</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Try Stand-Reason During</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Order Five-Town Challenge</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Difference Throughout-Simply Industry</t>
+          <t>There Because-Production Idea</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Especially Stuff-More Seat</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Good Cup-Sure Law</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Education Hit-Why Budget</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Side Former-Trial Meeting</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Rate Leg-Those Nature</t>
         </is>
       </c>
     </row>
@@ -1275,59 +1235,44 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Still Race-Particular Such</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Different Economy-That Leader</t>
+          <t>Question Finally-Evening Those</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Produce Early-Fill Dark</t>
+          <t>Rate Through-Source Laugh</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Their Development-Region Begin</t>
+          <t>Minute Always-Really Seat</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Also Hold-Wait Long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Half Pattern-Somebody Product</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Own No-Record Allow</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Especially Stuff-More Seat</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Morning Several-Different Them</t>
+          <t>Offer Well-Town Challenge</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Make Later-See To</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Beyond Above-Shake Suddenly</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Government Majority-Drug Condition</t>
+          <t>Chair Point-Sure Member</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Hair Paper-Resource Question</t>
+          <t>Behind Coach-Example Three</t>
         </is>
       </c>
     </row>
@@ -1471,64 +1416,89 @@
           <t>17-18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Can Control-Trial Meeting</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Two Some-Skill Support</t>
+          <t>Central Reason-Green Religious</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Health Start-Reach Medical</t>
+          <t>Impact Fire-Serve Believe</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Condition Way-Night Today</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Question Finally-Difference Throughout</t>
+          <t>Heavy Concern-Reach Set</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Republican Continue-Difference Throughout</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>After Morning-Yes Other</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agency Truth-Week Board</t>
+          <t>Matter Country-Have Full</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Big Store-Rate Billion</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Also Hold-Piece Party</t>
+          <t>Drive Executive-Drug Condition</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Their Development-Anything Yes</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>Half Pattern-Save Over</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>National Talk-Sure Law</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Different Economy-Seem How</t>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Good Cup-Unit Budget</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Bill Minute-Look Six</t>
+          <t>Seem How-Effort Rather</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Still Race-Two Standard</t>
+          <t>Chair Point-Piece Party</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Down Threat-Summer Without</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Easy Exist-Sort Method</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Short Property-Ever Material</t>
+          <t>Also Hold-Sound Television</t>
         </is>
       </c>
     </row>
@@ -1540,82 +1510,62 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Different Them-See To</t>
+          <t>Indeed Day-Reveal Today</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Especially Stuff-Order Five</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Anyone Might-Officer Six</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Short North-Yourself How</t>
+          <t>Anyone Might-Education Point</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Education Hit-Why Budget</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Easy Exist-Effort Rather</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Operation Scientist-Beyond Above</t>
+          <t>Beyond Above-Play Nature</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Half Pattern-Save Over</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Individual Could-Reason During</t>
+          <t>Everything Color-Those Nature</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Especially Stuff-Notice World</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Better Environmental-Shake Suddenly</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Yes Other-Concern Herself</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Admit Produce-When Less</t>
+          <t>Concern Herself-Always Protect</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>East Well-Discover Head</t>
+          <t>Whom Social-Third Million</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Example Three-Audience Health</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Different Our-Those Nature</t>
+          <t>Prevent Read-Resource Question</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Position Oil-Produce Early</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Expert Everyone-Simply Industry</t>
+          <t>Sure Member-Board American</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Rate Leg-Natural Might</t>
+          <t>Wish Foot-Offer Well</t>
         </is>
       </c>
     </row>
@@ -1625,59 +1575,59 @@
           <t>19-20</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>At Could-Product Hope</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Draw Another-Opportunity Kind</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rate Through-Industry Police</t>
+          <t>Fill Dark-Source Decide</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Once Bill-Own No</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Can Control-Serve Believe</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Attorney Travel-Also Tax</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Candidate Home-Have Full</t>
+          <t>Expert Everyone-Simply Industry</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Bag Girl-Half Management</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Maintain South-Audience Health</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Order Five-Production Idea</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Raise Call-Cover Manage</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Lot Recent-Town Challenge</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Issue Together-Far Word</t>
+          <t>Operation Scientist-Issue Together</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Simple Training-Suddenly Inside</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Race Seven-Unit Budget</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Paper Camera-Stock Measure</t>
+          <t>Minute Always-System New</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Message Describe-Camera Recently</t>
+          <t>Ability Food-Yard Man</t>
         </is>
       </c>
     </row>
@@ -1687,64 +1637,59 @@
           <t>20-21</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Position Oil-None Explain</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Law Employee-Opportunity Kind</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Policy Write-Their West</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Matter Country-Test Gun</t>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>That Leader-Fish Couple</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Once Bill-Play Nature</t>
+          <t>Big Store-Condition Way</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Necessary Ask-Decision After</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Sense Follow-Really Seat</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Arm Nature-Make Later</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Natural Wait-Top Member</t>
+          <t>Yourself How-Top Member</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Education Hit-Paper Camera</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Rate Budget-Me Must</t>
+          <t>Candidate Home-Rate Budget</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Property Stop-Specific Goal</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Back Radio-Sign Learn</t>
+          <t>Region Begin-Individual Could</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Republican Continue-Evening Those</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Road Involve-Within Least</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>Draw Another-Me Next</t>
+          <t>Town Feeling-Somebody Product</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Add Than-Natural Wait</t>
         </is>
       </c>
     </row>
@@ -1754,54 +1699,54 @@
           <t>21-22</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Message Describe-Camera Recently</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Admit Produce-Do Than</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Clearly Human-Gas Husband</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Letter National-Central Reason</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Always Protect-Shake Second</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Down Threat-Summer Without</t>
+          <t>Design Degree-Week Board</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Gas Husband-Sign Learn</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Clearly Human-Data Scene</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>There Because-State Baby</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Better Environmental-Whom Social</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>At Could-Sort Method</t>
+          <t>Different Our-Do Board</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Growth Military-Within Least</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Fish Couple-Product Hope</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Ability Food-Yard Man</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>More Seat-Wish Foot</t>
+          <t>East Well-Rate Billion</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Sure Member-Wait Long</t>
+          <t>Our Second-Evening Those</t>
         </is>
       </c>
     </row>
@@ -1813,77 +1758,57 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Make Later-Less Determine</t>
+          <t>Night Today-Sea Administration</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Hair Paper-Stock Measure</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Company Car-Government Majority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Their Development-Particular Such</t>
+          <t>When Less-Still Race</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Play Create-Source Laugh</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chair Point-Reach Set</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Impact Fire-Produce Early</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Source Laugh-Really Seat</t>
+          <t>Maybe Modern-Cover Manage</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Company Car-Past Factor</t>
+          <t>Property Stop-Camera Front</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Region Begin-Do Than</t>
+          <t>Simple Training-Rate Leg</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Production Idea-Offer Well</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Morning Several-Somebody Product</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>State Baby-Project Almost</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Side Former-Source Decide</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Maybe Modern-System Practice</t>
+          <t>Two Standard-Try Stand</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Town Feeling-Reveal Today</t>
+          <t>Record Allow-Far Word</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Try Stand-Anything Yes</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Everything Color-Series Recently</t>
+          <t>Short North-Help Amount</t>
         </is>
       </c>
     </row>
@@ -2029,72 +1954,62 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bill Minute-Free Financial</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>There Because-Lot Recent</t>
+          <t>Condition Way-Time Management</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Two Some-Easy Exist</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Camera Recently-Yard Man</t>
+          <t>Republican Continue-Past Factor</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Design Degree-Week Board</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Piece Party-Necessary Ask</t>
+          <t>Whom Social-Shake Suddenly</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>East Well-Discover Head</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Candidate Home-Detail Person</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Whom Social-Play Nature</t>
+          <t>Health Start-Sea Administration</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Policy Write-Position Oil</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Operation Scientist-Shake Suddenly</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>National Talk-Camera Front</t>
+          <t>Indeed Day-Save Over</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Policy Write-None Explain</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Road Involve-Always Protect</t>
+          <t>Chair Point-Sound Television</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Law Employee-Resource Question</t>
+          <t>Serve Believe-Side Former</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Can Control-Fill Dark</t>
+          <t>Evening Those-Drug Condition</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Add Than-Ever Material</t>
+          <t>Why Budget-Prevent Read</t>
         </is>
       </c>
     </row>
@@ -2106,82 +2021,62 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sort Method-Product Hope</t>
+          <t>There Because-Project Almost</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Skill Support-Effort Rather</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>That Leader-Effort Rather</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Maintain South-Behind Coach</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Serve Believe-None Explain</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Gas Husband-Cover Manage</t>
+          <t>Individual Could-Reason During</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Paper Camera-Stock Measure</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Fish Couple-Open First</t>
+          <t>Add Than-Behind Coach</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Half Pattern-Town Feeling</t>
+          <t>Maybe Modern-Sign Learn</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Education Point-Everything Color</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Kind Blood-Sure Law</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Also Hold-Involve Big</t>
+          <t>Beyond Above-Record Allow</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Less Determine-Reveal Today</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Produce Early-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Two Some-Seem How</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Evening Those-Government Majority</t>
+          <t>Help Amount-Example Three</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Me Must-Minute Citizen</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Simply Industry-Past Factor</t>
+          <t>Attorney Travel-Always Protect</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Officer Six-Series Recently</t>
+          <t>Operation Scientist-Once Bill</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>State Baby-Wish Foot</t>
         </is>
       </c>
     </row>
@@ -2191,74 +2086,59 @@
           <t>19-20</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Really Seat-Yard Man</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Law Employee-Me Next</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Minute Always-Rate Through</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Republican Continue-Drug Condition</t>
+          <t>Lot Recent-Notice World</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Health Start-Summer Without</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Clearly Human-Data Scene</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Letter National-Test Gun</t>
+          <t>System New-Source Laugh</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>At Could-Different Economy</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Region Begin-Anything Yes</t>
+          <t>Their Development-Two Standard</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Also Tax-Within Least</t>
+          <t>Company Car-Difference Throughout</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Involve Big-Sure Member</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Own No-Far Word</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Offer Well-Town Challenge</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Drive Executive-Question Finally</t>
+          <t>Their West-Produce Early</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Different Our-Natural Might</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Industry Police-Source Laugh</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Company Car-Our Second</t>
+          <t>Different Economy-Product Hope</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Bag Girl-Half Management</t>
+          <t>Message Describe-Rate Through</t>
         </is>
       </c>
     </row>
@@ -2270,57 +2150,77 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Short Property-Short North</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Green Religious-Minute Citizen</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Paper Camera-Opportunity Kind</t>
+          <t>Race Seven-Look Six</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sort Method-Fish Couple</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Less Determine-See To</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>At Could-Open First</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Hair Paper-Prevent Read</t>
+          <t>Officer Six-Education Point</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Heavy Concern-Wait Long</t>
+          <t>Those Nature-Suddenly Inside</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Maybe Modern-Back Radio</t>
+          <t>Also Hold-Decision After</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Better Environmental-Third Million</t>
+          <t>Question Finally-Expert Everyone</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Order Five-Wish Foot</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>After Morning-Growth Military</t>
+          <t>Different Them-Reveal Today</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Do Board-Those Nature</t>
+          <t>After Morning-Concern Herself</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Bag Girl-Growth Military</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Attorney Travel-Shake Second</t>
+          <t>Arm Nature-Morning Several</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Minute Always-Industry Police</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Our Second-Simply Industry</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Road Involve-Shake Second</t>
         </is>
       </c>
     </row>
@@ -2330,39 +2230,59 @@
           <t>21-22</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Draw Another-Education Hit</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Property Stop-Good Cup</t>
+          <t>Raise Call-Week Board</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Letter National-Have Full</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Back Radio-Cover Manage</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Agency Truth-Design Degree</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Reach Medical-Summer Without</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Suddenly Inside-Natural Might</t>
+          <t>Ability Food-Play Create</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Rate Billion-Time Management</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Still Race-Do Than</t>
+          <t>Simple Training-Series Recently</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Central Reason-Test Gun</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Arm Nature-See To</t>
+          <t>Wait Long-Board American</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Big Store-East Well</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>Sound Television-Decision After</t>
+          <t>Bill Minute-Property Stop</t>
         </is>
       </c>
     </row>
@@ -2372,74 +2292,69 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Indeed Day-Different Them</t>
-        </is>
-      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Impact Fire-Source Decide</t>
+          <t>More Seat-Offer Well</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Maintain South-Ever Material</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sense Follow-Camera Recently</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Race Seven-Look Six</t>
+          <t>Camera Front-Free Financial</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Their West-Side Former</t>
+          <t>Necessary Ask-Reach Set</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Board American-Reach Set</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Agency Truth-Raise Call</t>
+          <t>Hair Paper-Opportunity Kind</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Detail Person-Green Religious</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Help Amount-Top Member</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>When Less-Individual Could</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Once Bill-Record Allow</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Natural Wait-Audience Health</t>
+          <t>Short Property-Yourself How</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Sense Follow-System New</t>
+          <t>Still Race-Anything Yes</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Message Describe-Really Seat</t>
+          <t>Yes Other-Also Tax</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Draw Another-Stock Measure</t>
+          <t>Production Idea-Town Challenge</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>System Practice-Data Scene</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Chair Point-Sure Member</t>
+          <t>Particular Such-Do Than</t>
         </is>
       </c>
     </row>
@@ -2583,84 +2498,69 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Easy Exist-Fish Couple</t>
-        </is>
-      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Industry Police-Really Seat</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Central Reason-Rate Budget</t>
+          <t>Admit Produce-Individual Could</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sure Member-Sound Television</t>
+          <t>Can Control-None Explain</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Republican Continue-Expert Everyone</t>
+          <t>Town Feeling-Morning Several</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>After Morning-Yes Other</t>
+          <t>Effort Rather-Open First</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Time Management-Discover Head</t>
+          <t>Message Describe-Really Seat</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Letter National-Green Religious</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Raise Call-Data Scene</t>
+          <t>Play Nature-Far Word</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Good Cup-Race Seven</t>
+          <t>Raise Call-Maybe Modern</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Necessary Ask-Board American</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Position Oil-Source Decide</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Side Former-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Involve Big-Piece Party</t>
+          <t>Drive Executive-Question Finally</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>There Because-Wish Foot</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Their West-Serve Believe</t>
+          <t>Issue Together-Shake Suddenly</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>Admit Produce-Region Begin</t>
+          <t>Impact Fire-Policy Write</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Better Environmental-Own No</t>
+          <t>Rate Leg-Everything Color</t>
         </is>
       </c>
     </row>
@@ -2670,49 +2570,59 @@
           <t>18-19</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Especially Stuff-Project Almost</t>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Their West-Position Oil</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Matter Country-Me Must</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ability Food-Source Laugh</t>
+          <t>Race Seven-Unit Budget</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rate Through-Camera Recently</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Letter National-Have Full</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Particular Such-Reason During</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Once Bill-Far Word</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Detail Person-Test Gun</t>
+          <t>Save Over-Reveal Today</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Natural Wait-Yourself How</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Industry Police-Camera Recently</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Also Tax-Shake Second</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Behind Coach-Help Amount</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Less Determine-Different Them</t>
+          <t>Less Determine-Somebody Product</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Rate Leg-Do Board</t>
+          <t>State Baby-Offer Well</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Chair Point-Decision After</t>
         </is>
       </c>
     </row>
@@ -2724,62 +2634,67 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Reveal Today-See To</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Back Radio-System Practice</t>
+          <t>Agency Truth-Gas Husband</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Candidate Home-Detail Person</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Hair Paper-Opportunity Kind</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Wait Long-Reach Set</t>
+          <t>Yes Other-Bag Girl</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Reach Medical-Sea Administration</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Maintain South-Example Three</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Night Today-Down Threat</t>
+          <t>Company Car-Simply Industry</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Company Car-Drive Executive</t>
+          <t>Government Majority-Difference Throughout</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Ever Material-Audience Health</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lot Recent-More Seat</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Can Control-Impact Fire</t>
+          <t>Anyone Might-Do Board</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Officer Six-Series Recently</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Me Next-Prevent Read</t>
+          <t>Fill Dark-Trial Meeting</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Also Hold-Heavy Concern</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Different Economy-Skill Support</t>
+          <t>Better Environmental-Whom Social</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Different Our-Suddenly Inside</t>
+          <t>Sense Follow-Source Laugh</t>
         </is>
       </c>
     </row>
@@ -2791,82 +2706,72 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Specific Goal-Unit Budget</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Candidate Home-Green Religious</t>
+          <t>National Talk-Good Cup</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Produce Early-Source Decide</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Their Development-Two Standard</t>
+          <t>Especially Stuff-Production Idea</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Short North-Top Member</t>
+          <t>Piece Party-Wait Long</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Whom Social-Shake Suddenly</t>
+          <t>Kind Blood-Sure Law</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Road Involve-Within Least</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Attorney Travel-Half Management</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Make Later-Morning Several</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Notice World-Town Challenge</t>
+          <t>Rate Budget-Test Gun</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Condition Way-Reach Medical</t>
+          <t>Time Management-Discover Head</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Simple Training-Education Point</t>
+          <t>Third Million-Record Allow</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Order Five-Notice World</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Government Majority-Difference Throughout</t>
+          <t>Big Store-Down Threat</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Order Five-State Baby</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Two Some-Open First</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Draw Another-Why Budget</t>
+          <t>Minute Always-Yard Man</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Make Later-See To</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Property Stop-Sure Law</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Play Create-System New</t>
+          <t>Back Radio-Design Degree</t>
         </is>
       </c>
     </row>
@@ -2878,47 +2783,72 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Policy Write-None Explain</t>
+          <t>Seem How-Fish Couple</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wish Foot-Offer Well</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Heavy Concern-Decision After</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Natural Wait-Yourself How</t>
+          <t>Property Stop-Free Financial</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>System Practice-Sign Learn</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Central Reason-Have Full</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Anyone Might-Natural Might</t>
+          <t>Drug Condition-Past Factor</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Involve Big-Board American</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Education Hit-Paper Camera</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Also Tax-Concern Herself</t>
+          <t>Condition Way-Rate Billion</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Still Race-Reason During</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>After Morning-Attorney Travel</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Growth Military-Always Protect</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>There Because-Production Idea</t>
+          <t>Region Begin-Do Than</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Arm Nature-Half Pattern</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>That Leader-Product Hope</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>At Could-Effort Rather</t>
+          <t>Law Employee-Resource Question</t>
         </is>
       </c>
     </row>
@@ -2928,64 +2858,64 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Two Some-Sort Method</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Hair Paper-Paper Camera</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Operation Scientist-Own No</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>East Well-Health Start</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Bill Minute-Specific Goal</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Concern Herself-Half Management</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Draw Another-Prevent Read</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
         <is>
           <t>When Less-Try Stand</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Maybe Modern-Design Degree</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Behind Coach-Ever Material</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Sense Follow-Message Describe</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Matter Country-Me Must</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Half Pattern-Indeed Day</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Sign Learn-Cover Manage</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Officer Six-Those Nature</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Somebody Product-Save Over</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Camera Front-Look Six</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Issue Together-Play Nature</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Beyond Above-Record Allow</t>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Clearly Human-Cover Manage</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Short Property-Short North</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Two Standard-Particular Such</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Top Member-Example Three</t>
         </is>
       </c>
     </row>
@@ -3131,67 +3061,62 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Save Over-See To</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Property Stop-Race Seven</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Can Control-Produce Early</t>
+          <t>Question Finally-Our Second</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Republican Continue-Our Second</t>
+          <t>Rate Leg-Different Our</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Agency Truth-Maybe Modern</t>
+          <t>Add Than-Short North</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Easy Exist-Product Hope</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>East Well-Night Today</t>
+          <t>Simply Industry-Past Factor</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Hair Paper-Why Budget</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Do Than-Anything Yes</t>
+          <t>Do Board-Suddenly Inside</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Add Than-Short Property</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Shake Suddenly-Record Allow</t>
+          <t>Concern Herself-Growth Military</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Clearly Human-Gas Husband</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>State Baby-Production Idea</t>
+          <t>Heavy Concern-Wait Long</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Impact Fire-Serve Believe</t>
+          <t>Morning Several-See To</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Sure Member-Necessary Ask</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Necessary Ask-Sound Television</t>
+          <t>Also Tax-Half Management</t>
         </is>
       </c>
     </row>
@@ -3203,72 +3128,77 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Play Create-Really Seat</t>
+          <t>National Talk-Unit Budget</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>There Because-Lot Recent</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Order Five-Offer Well</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Seem How-Product Hope</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>After Morning-Attorney Travel</t>
+          <t>Ability Food-Sense Follow</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Third Million-Play Nature</t>
+          <t>Specific Goal-Look Six</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Different Economy-Easy Exist</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Shake Suddenly-Own No</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Clearly Human-Back Radio</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Drive Executive-Simply Industry</t>
+          <t>Data Scene-Week Board</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Education Point-Those Nature</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Big Store-Health Start</t>
+          <t>Their Development-Try Stand</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Minute Citizen-Have Full</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>There Because-More Seat</t>
+          <t>Town Feeling-Reveal Today</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Their West-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Reach Medical-Down Threat</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Education Point-Natural Might</t>
+          <t>Kind Blood-Free Financial</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Growth Military-Shake Second</t>
+          <t>Education Hit-Resource Question</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>Evening Those-Past Factor</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Unit Budget-Look Six</t>
+          <t>Do Than-Reason During</t>
         </is>
       </c>
     </row>
@@ -3280,47 +3210,77 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Opportunity Kind-Resource Question</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Central Reason-Me Must</t>
+          <t>Me Next-Stock Measure</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Produce Early-Trial Meeting</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Maintain South-Audience Health</t>
+          <t>Impact Fire-Side Former</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Two Some-Effort Rather</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Town Feeling-Morning Several</t>
+          <t>Property Stop-Race Seven</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>State Baby-Town Challenge</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Rate Billion-Discover Head</t>
+          <t>Example Three-Audience Health</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Time Management-Summer Without</t>
+          <t>Position Oil-None Explain</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Simple Training-Series Recently</t>
+          <t>Big Store-East Well</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>When Less-Individual Could</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Operation Scientist-Once Bill</t>
+          <t>Agency Truth-System Practice</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>That Leader-Open First</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Law Employee-Stock Measure</t>
+          <t>Operation Scientist-Play Nature</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Admit Produce-Particular Such</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Serve Believe-Fill Dark</t>
         </is>
       </c>
     </row>
@@ -3330,84 +3290,64 @@
           <t>20-21</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Policy Write-Source Decide</t>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Play Create-Yard Man</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Good Cup-Kind Blood</t>
+          <t>Night Today-Down Threat</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Chair Point-Board American</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Involve Big-Decision After</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Sort Method-Fish Couple</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Source Laugh-Camera Recently</t>
+          <t>At Could-Skill Support</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Green Religious-Test Gun</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Company Car-Difference Throughout</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Rate Budget-Matter Country</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Still Race-Individual Could</t>
+          <t>Rate Billion-Summer Without</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Question Finally-Drug Condition</t>
+          <t>Sound Television-Decision After</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Those Nature-Suddenly Inside</t>
+          <t>Arm Nature-Less Determine</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Bill Minute-National Talk</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>None Explain-Fill Dark</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Different Economy-Two Some</t>
+          <t>Central Reason-Matter Country</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>That Leader-Seem How</t>
+          <t>More Seat-Production Idea</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>After Morning-Shake Second</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>Ability Food-Minute Always</t>
+          <t>Rate Through-Really Seat</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Paper Camera-Opportunity Kind</t>
         </is>
       </c>
     </row>
@@ -3417,59 +3357,79 @@
           <t>21-22</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Half Pattern-Different Them</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>System Practice-Gas Husband</t>
+          <t>Also Hold-Chair Point</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Also Hold-Reach Set</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Concern Herself-Always Protect</t>
+          <t>Industry Police-Source Laugh</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Policy Write-Source Decide</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Letter National-Minute Citizen</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Better Environmental-Beyond Above</t>
+          <t>Raise Call-Design Degree</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Behind Coach-Top Member</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Half Management-Within Least</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Letter National-Detail Person</t>
+          <t>Sea Administration-Time Management</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Project Almost-Town Challenge</t>
+          <t>Republican Continue-Drug Condition</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Arm Nature-Indeed Day</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Do Board-Everything Color</t>
+          <t>Indeed Day-Somebody Product</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Everything Color-Natural Might</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Good Cup-Camera Front</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Ever Material-Yourself How</t>
+          <t>Beyond Above-Whom Social</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Evening Those-Expert Everyone</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>At Could-Open First</t>
+          <t>Two Standard-Anything Yes</t>
         </is>
       </c>
     </row>
@@ -3481,67 +3441,52 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Different Them-Reveal Today</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Specific Goal-Free Financial</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>System New-Yard Man</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Draw Another-Education Hit</t>
+          <t>Board American-Reach Set</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Natural Wait-Help Amount</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Attorney Travel-Bag Girl</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Message Describe-System New</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Make Later-Somebody Product</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Data Scene-Week Board</t>
+          <t>Short Property-Ever Material</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Design Degree-Cover Manage</t>
+          <t>Better Environmental-Once Bill</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Top Member-Example Three</t>
+          <t>Especially Stuff-Project Almost</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Officer Six-Simple Training</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Region Begin-Particular Such</t>
+          <t>Issue Together-Record Allow</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Yes Other-Also Tax</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Bag Girl-Road Involve</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Short North-Help Amount</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Two Standard-Try Stand</t>
+          <t>Maintain South-Yourself How</t>
         </is>
       </c>
     </row>
@@ -3685,74 +3630,49 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Sure Law-Look Six</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Sure Member-Reach Set</t>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ability Food-Message Describe</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Try Stand-Anything Yes</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sense Follow-Yard Man</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Evening Those-Expert Everyone</t>
+          <t>Difference Throughout-Simply Industry</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Better Environmental-Shake Suddenly</t>
+          <t>Detail Person-Test Gun</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Once Bill-Own No</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Different Our-Do Board</t>
+          <t>Whom Social-Once Bill</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Agency Truth-Data Scene</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Draw Another-Resource Question</t>
+          <t>Beyond Above-Far Word</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Natural Wait-Help Amount</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Good Cup-Camera Front</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>After Morning-Half Management</t>
+          <t>When Less-Particular Such</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Admit Produce-Their Development</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Can Control-Side Former</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>More Seat-Offer Well</t>
+          <t>State Baby-Project Almost</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -3769,77 +3689,67 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>There Because-State Baby</t>
+          <t>Good Cup-Specific Goal</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Play Create-Camera Recently</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Discover Head-Summer Without</t>
+          <t>Anyone Might-Series Recently</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Detail Person-Matter Country</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Their West-Fill Dark</t>
+          <t>Policy Write-Serve Believe</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Paper Camera-Prevent Read</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Government Majority-Simply Industry</t>
+          <t>At Could-Easy Exist</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Gas Husband-Data Scene</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Clearly Human-Maybe Modern</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>When Less-Their Development</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Everything Color-Those Nature</t>
+          <t>Rate Leg-Do Board</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Condition Way-Sea Administration</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Concern Herself-Within Least</t>
+          <t>Camera Front-Race Seven</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Design Degree-Sign Learn</t>
+          <t>There Because-Notice World</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>East Well-Condition Way</t>
+          <t>Drive Executive-Past Factor</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Issue Together-Whom Social</t>
+          <t>Company Car-Expert Everyone</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
           <t>X</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>Easy Exist-Skill Support</t>
         </is>
       </c>
     </row>
@@ -3849,59 +3759,64 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Health Start-Down Threat</t>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Their West-Trial Meeting</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Can Control-Side Former</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Somebody Product-Save Over</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Big Store-Reach Medical</t>
+          <t>Sort Method-Effort Rather</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Opportunity Kind-Stock Measure</t>
+          <t>Raise Call-Sign Learn</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Behind Coach-Audience Health</t>
+          <t>Growth Military-Shake Second</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Anyone Might-Simple Training</t>
+          <t>Week Board-Cover Manage</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Rate Leg-Series Recently</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>At Could-Fish Couple</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Officer Six-Suddenly Inside</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>That Leader-Sort Method</t>
+          <t>Still Race-Individual Could</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Less Determine-Reveal Today</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Bill Minute-Sure Law</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Position Oil-Produce Early</t>
+          <t>Town Feeling-See To</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Seem How-Effort Rather</t>
+          <t>Stock Measure-Prevent Read</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -3911,7 +3826,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Hair Paper-Me Next</t>
+          <t>Fish Couple-Open First</t>
         </is>
       </c>
     </row>
@@ -3921,49 +3836,54 @@
           <t>20-21</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Rate Through-Play Create</t>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Also Hold-Piece Party</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Lot Recent-Wish Foot</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ability Food-Industry Police</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Letter National-Green Religious</t>
+          <t>Unit Budget-Free Financial</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>After Morning-Also Tax</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Beyond Above-Third Million</t>
+          <t>Back Radio-System Practice</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Reach Medical-Discover Head</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Piece Party-Wait Long</t>
+          <t>Better Environmental-Record Allow</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Difference Throughout-Past Factor</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Serve Believe-Source Decide</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Message Describe-System New</t>
+          <t>Officer Six-Those Nature</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Kind Blood-Look Six</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Town Feeling-See To</t>
+          <t>Involve Big-Necessary Ask</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -3973,7 +3893,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Anything Yes-Reason During</t>
+          <t>Natural Wait-Behind Coach</t>
         </is>
       </c>
     </row>
@@ -3983,49 +3903,59 @@
           <t>21-22</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Make Later-Half Pattern</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Especially Stuff-Lot Recent</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Raise Call-Gas Husband</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
+          <t>Maintain South-Example Three</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>Rate Budget-Minute Citizen</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Draw Another-Resource Question</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Road Involve-Always Protect</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Agency Truth-Maybe Modern</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Order Five-Notice World</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Wish Foot-Town Challenge</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Indeed Day-Save Over</t>
+          <t>Attorney Travel-Half Management</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Chair Point-Involve Big</t>
+          <t>Education Point-Different Our</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Shake Suddenly-Third Million</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Make Later-Half Pattern</t>
+          <t>Minute Always-Source Laugh</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>Bill Minute-Property Stop</t>
+          <t>Our Second-Drug Condition</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -4035,7 +3965,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Law Employee-Why Budget</t>
+          <t>Evening Those-Government Majority</t>
         </is>
       </c>
     </row>
@@ -4045,64 +3975,69 @@
           <t>22-23</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Different Economy-Two Some</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Admit Produce-Still Race</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Candidate Home-Test Gun</t>
+          <t>Letter National-Matter Country</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Candidate Home-Me Must</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Health Start-Time Management</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Necessary Ask-Heavy Concern</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Less Determine-Morning Several</t>
+          <t>Night Today-Rate Billion</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Short Property-Help Amount</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Ever Material-Example Three</t>
+          <t>Green Religious-Have Full</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Play Nature-Far Word</t>
+          <t>Especially Stuff-Town Challenge</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Two Standard-Region Begin</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Bag Girl-Always Protect</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Two Standard-Region Begin</t>
+          <t>Yes Other-Within Least</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Really Seat-Camera Recently</t>
+          <t>Law Employee-Paper Camera</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Production Idea-Project Almost</t>
+          <t>Hair Paper-Me Next</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
           <t>X</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>Particular Such-Individual Could</t>
         </is>
       </c>
     </row>
@@ -4248,77 +4183,77 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Half Pattern-Different Them</t>
+          <t>Half Pattern-Reveal Today</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rate Leg-Those Nature</t>
+          <t>Add Than-Maintain South</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>More Seat-Notice World</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Their West-None Explain</t>
+          <t>Sound Television-Board American</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Law Employee-Me Next</t>
+          <t>Town Feeling-Save Over</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Operation Scientist-Issue Together</t>
+          <t>After Morning-Road Involve</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sort Method-Seem How</t>
+          <t>Night Today-Time Management</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Government Majority-Expert Everyone</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Minute Citizen-Test Gun</t>
+          <t>Also Hold-Involve Big</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Short Property-Yourself How</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Prevent Read-Resource Question</t>
+          <t>Chair Point-Reach Set</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Arm Nature-Town Feeling</t>
+          <t>Matter Country-Test Gun</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Admit Produce-Two Standard</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Impact Fire-Side Former</t>
+          <t>Ability Food-Rate Through</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Indeed Day-Morning Several</t>
+          <t>Morning Several-Somebody Product</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>East Well-Summer Without</t>
+          <t>Operation Scientist-Beyond Above</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Property Stop-Good Cup</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Hair Paper-Resource Question</t>
         </is>
       </c>
     </row>
@@ -4330,67 +4265,67 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Different Economy-Effort Rather</t>
+          <t>Discover Head-Summer Without</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>There Because-Project Almost</t>
+          <t>Can Control-Their West</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Their Development-Anything Yes</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Clearly Human-Cover Manage</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>That Leader-Open First</t>
+          <t>Product Hope-Skill Support</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Shake Suddenly-Own No</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Condition Way-Discover Head</t>
+          <t>Drive Executive-Evening Those</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Behind Coach-Yourself How</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Reach Medical-Rate Billion</t>
+          <t>Agency Truth-Clearly Human</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Back Radio-Sign Learn</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Officer Six-Education Point</t>
+          <t>Admit Produce-Reason During</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Anyone Might-Everything Color</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Sure Law-Free Financial</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Behind Coach-Top Member</t>
+          <t>Big Store-Health Start</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Bag Girl-Always Protect</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Involve Big-Sound Television</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>Also Hold-Board American</t>
+          <t>Shake Suddenly-Record Allow</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Education Hit-Stock Measure</t>
         </is>
       </c>
     </row>
@@ -4400,49 +4335,69 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Drive Executive-Government Majority</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Can Control-Trial Meeting</t>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>National Talk-Specific Goal</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Policy Write-Produce Early</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>System Practice-Week Board</t>
+          <t>Opportunity Kind-Prevent Read</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Lot Recent-Production Idea</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Drug Condition-Simply Industry</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Night Today-Health Start</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Production Idea-Town Challenge</t>
+          <t>Serve Believe-Trial Meeting</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Letter National-Me Must</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Short North-Example Three</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Question Finally-Simply Industry</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>Raise Call-Back Radio</t>
+          <t>Their Development-Region Begin</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Ever Material-Help Amount</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Arm Nature-Indeed Day</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Different Our-Natural Might</t>
+          <t>Impact Fire-Produce Early</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Third Million-Own No</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>State Baby-More Seat</t>
         </is>
       </c>
     </row>
@@ -4454,77 +4409,57 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>National Talk-Race Seven</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Anyone Might-Do Board</t>
+          <t>Kind Blood-Camera Front</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Lot Recent-Wish Foot</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Maintain South-Help Amount</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Whom Social-Record Allow</t>
+          <t>Position Oil-Fill Dark</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Camera Front-Unit Budget</t>
+          <t>Better Environmental-Issue Together</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Our Second-Drug Condition</t>
+          <t>Detail Person-Minute Citizen</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Whom Social-Far Word</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Add Than-Example Three</t>
+          <t>Try Stand-Particular Such</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Central Reason-Detail Person</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Kind Blood-Specific Goal</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Sea Administration-Down Threat</t>
+          <t>Necessary Ask-Wait Long</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Less Determine-Different Them</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Rate Through-System New</t>
+          <t>Central Reason-Rate Budget</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Bag Girl-Concern Herself</t>
+          <t>Law Employee-Why Budget</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>Data Scene-Sign Learn</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>Also Tax-Road Involve</t>
+          <t>At Could-Sort Method</t>
         </is>
       </c>
     </row>
@@ -4534,59 +4469,74 @@
           <t>21-22</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Top Member-Audience Health</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Piece Party-Heavy Concern</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Two Some-Fish Couple</t>
+          <t>Question Finally-Republican Continue</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Two Some-Seem How</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Hair Paper-Why Budget</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Me Must-Have Full</t>
+          <t>System Practice-Design Degree</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Still Race-Try Stand</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Evening Those-Difference Throughout</t>
+          <t>Those Nature-Natural Might</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sure Member-Piece Party</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Yes Other-Shake Second</t>
+          <t>Order Five-There Because</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Somebody Product-Reveal Today</t>
+          <t>Still Race-Do Than</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Reach Medical-Down Threat</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Sense Follow-Industry Police</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Minute Always-Industry Police</t>
+          <t>Notice World-Town Challenge</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Rate Leg-Suddenly Inside</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>At Could-Product Hope</t>
+          <t>East Well-Condition Way</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>Really Seat-Yard Man</t>
+          <t>Camera Recently-Yard Man</t>
         </is>
       </c>
     </row>
@@ -4598,67 +4548,72 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Agency Truth-Gas Husband</t>
+          <t>Project Almost-Offer Well</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fill Dark-Source Decide</t>
+          <t>That Leader-Effort Rather</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Company Car-Expert Everyone</t>
+          <t>System New-Really Seat</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Do Than-Reason During</t>
+          <t>When Less-Two Standard</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Attorney Travel-Within Least</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Message Describe-Play Create</t>
+          <t>Half Management-Within Least</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Company Car-Our Second</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Once Bill-Play Nature</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Sure Member-Decision After</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Region Begin-Individual Could</t>
+          <t>Heavy Concern-Decision After</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Less Determine-Save Over</t>
+          <t>Simple Training-Education Point</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Big Store-Time Management</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>Especially Stuff-Offer Well</t>
+          <t>None Explain-Source Decide</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Also Tax-Concern Herself</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Short North-Audience Health</t>
+          <t>Short Property-Natural Wait</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>Sense Follow-Source Laugh</t>
+          <t>Bill Minute-Look Six</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Message Describe-Source Laugh</t>
         </is>
       </c>
     </row>
@@ -4802,69 +4757,59 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Draw Another-Hair Paper</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Road Involve-Shake Second</t>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Reveal Today-See To</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sense Follow-Play Create</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Gas Husband-Design Degree</t>
+          <t>Piece Party-Necessary Ask</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Drive Executive-Past Factor</t>
+          <t>Evening Those-Simply Industry</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Especially Stuff-Notice World</t>
+          <t>System Practice-Cover Manage</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Wish Foot-Project Almost</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Natural Wait-Ever Material</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Good Cup-Unit Budget</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>At Could-Seem How</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>Raise Call-Sign Learn</t>
+          <t>Our Second-Government Majority</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Operation Scientist-Whom Social</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Also Tax-Within Least</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Do Board-Natural Might</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>Government Majority-Expert Everyone</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>That Leader-Product Hope</t>
+          <t>Question Finally-Difference Throughout</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Admit Produce-Particular Such</t>
+          <t>Expert Everyone-Drug Condition</t>
         </is>
       </c>
     </row>
@@ -4874,74 +4819,54 @@
           <t>18-19</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>State Baby-More Seat</t>
-        </is>
-      </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Everything Color-Suddenly Inside</t>
+          <t>Education Point-Everything Color</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Their West-Position Oil</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Their Development-Individual Could</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Third Million-Own No</t>
+          <t>Health Start-Reach Medical</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Their West-None Explain</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Green Religious-Matter Country</t>
+          <t>After Morning-Bag Girl</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Order Five-Lot Recent</t>
+          <t>Product Hope-Open First</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Company Car-Simply Industry</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Two Some-Easy Exist</t>
+          <t>Maybe Modern-Design Degree</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Lot Recent-State Baby</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Law Employee-Prevent Read</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>Skill Support-Effort Rather</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>When Less-Still Race</t>
+          <t>Sure Law-Unit Budget</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>At Could-Different Economy</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Question Finally-Our Second</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>Yes Other-Within Least</t>
+          <t>Rate Through-System New</t>
         </is>
       </c>
     </row>
@@ -4953,72 +4878,72 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Education Hit-Opportunity Kind</t>
+          <t>Involve Big-Heavy Concern</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Rate Through-Source Laugh</t>
+          <t>Sea Administration-Discover Head</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Stock Measure-Resource Question</t>
+          <t>Bill Minute-Free Financial</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Impact Fire-Fill Dark</t>
+          <t>Law Employee-Hair Paper</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Rate Billion-Time Management</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Heavy Concern-Sound Television</t>
+          <t>Attorney Travel-Growth Military</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Health Start-Time Management</t>
+          <t>Yes Other-Concern Herself</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Big Store-Discover Head</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Bill Minute-Camera Front</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Half Management-Always Protect</t>
+          <t>Indeed Day-Town Feeling</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Test Gun-Have Full</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Indeed Day-See To</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>Maybe Modern-Data Scene</t>
+          <t>Data Scene-Sign Learn</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Better Environmental-Third Million</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>There Because-Town Challenge</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Source Laugh-Yard Man</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Simple Training-Natural Might</t>
+          <t>Sure Member-Sound Television</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Anyone Might-Different Our</t>
+          <t>Draw Another-Me Next</t>
         </is>
       </c>
     </row>
@@ -5030,62 +4955,72 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Serve Believe-Produce Early</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Night Today-Sea Administration</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Minute Always-Yard Man</t>
+          <t>Serve Believe-Position Oil</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Policy Write-Trial Meeting</t>
+          <t>Rate Budget-Me Must</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Beyond Above-Once Bill</t>
+          <t>Paper Camera-Prevent Read</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Sure Member-Necessary Ask</t>
+          <t>Central Reason-Minute Citizen</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Company Car-Past Factor</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Ability Food-Really Seat</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Arm Nature-Make Later</t>
+          <t>Issue Together-Play Nature</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Attorney Travel-Concern Herself</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Do Board-Series Recently</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Candidate Home-Letter National</t>
+          <t>Add Than-Short Property</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Make Later-Somebody Product</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Do Than-Individual Could</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Anyone Might-Simple Training</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Whom Social-Far Word</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>Add Than-Top Member</t>
+          <t>Property Stop-Kind Blood</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Can Control-Policy Write</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Fish Couple-Effort Rather</t>
         </is>
       </c>
     </row>
@@ -5097,72 +5032,67 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Industry Police-Play Create</t>
+          <t>Condition Way-Down Threat</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Admit Produce-Two Standard</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Paper Camera-Why Budget</t>
+          <t>Minute Always-Camera Recently</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Chair Point-Decision After</t>
+          <t>Opportunity Kind-Resource Question</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>After Morning-Also Tax</t>
+          <t>Wait Long-Decision After</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Difference Throughout-Drug Condition</t>
+          <t>Raise Call-Gas Husband</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Involve Big-Reach Set</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Rate Budget-Detail Person</t>
+          <t>Candidate Home-Have Full</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>National Talk-Race Seven</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Especially Stuff-Offer Well</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Central Reason-Minute Citizen</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>East Well-Reach Medical</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>Specific Goal-Race Seven</t>
+          <t>When Less-Anything Yes</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Ability Food-Sense Follow</t>
+          <t>Easy Exist-Seem How</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Beyond Above-Shake Suddenly</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Better Environmental-Issue Together</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>Two Standard-Anything Yes</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>Operation Scientist-Play Nature</t>
+          <t>Own No-Far Word</t>
         </is>
       </c>
     </row>
@@ -5172,54 +5102,74 @@
           <t>22-23</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Rate Leg-Series Recently</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wait Long-Board American</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>National Talk-Free Financial</t>
+          <t>Produce Early-Side Former</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Half Pattern-Reveal Today</t>
+          <t>Half Management-Shake Second</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Property Stop-Look Six</t>
+          <t>Green Religious-Matter Country</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>East Well-Night Today</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Still Race-Try Stand</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Agency Truth-Week Board</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Clearly Human-Week Board</t>
+          <t>Behind Coach-Audience Health</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Sort Method-Open First</t>
+          <t>Morning Several-Save Over</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>System New-Camera Recently</t>
+          <t>Impact Fire-Trial Meeting</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Production Idea-Wish Foot</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>There Because-Town Challenge</t>
+          <t>Officer Six-Different Our</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Maintain South-Yourself How</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>Help Amount-Example Three</t>
+          <t>Arm Nature-Different Them</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Drive Executive-Republican Continue</t>
         </is>
       </c>
     </row>
@@ -5365,72 +5315,62 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Piece Party-Sound Television</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>When Less-Reason During</t>
+          <t>Property Stop-Look Six</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Fill Dark-Side Former</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Clearly Human-System Practice</t>
+          <t>Sort Method-Open First</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Condition Way-Summer Without</t>
+          <t>Shake Suddenly-Once Bill</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Better Environmental-Once Bill</t>
+          <t>Short North-Ever Material</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Government Majority-Drug Condition</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Natural Wait-Short North</t>
+          <t>Arm Nature-Somebody Product</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Drive Executive-Evening Those</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Yourself How-Audience Health</t>
+          <t>Time Management-Down Threat</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Lot Recent-Production Idea</t>
+          <t>Me Next-Prevent Read</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Production Idea-Project Almost</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Raise Call-Week Board</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>Candidate Home-Matter Country</t>
+          <t>Operation Scientist-Record Allow</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Admit Produce-Their Development</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>At Could-Easy Exist</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>Why Budget-Prevent Read</t>
+          <t>Bill Minute-Good Cup</t>
         </is>
       </c>
     </row>
@@ -5442,72 +5382,52 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Me Must-Minute Citizen</t>
+          <t>Education Hit-Law Employee</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Message Describe-Industry Police</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Bill Minute-Specific Goal</t>
+          <t>Clearly Human-System Practice</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Rate Budget-Matter Country</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Fish Couple-Skill Support</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Can Control-Policy Write</t>
+          <t>Road Involve-Growth Military</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Education Hit-Me Next</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Ability Food-Play Create</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Region Begin-Try Stand</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Yes Other-Road Involve</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Kind Blood-Unit Budget</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>Gas Husband-Sign Learn</t>
+          <t>Different Our-Suddenly Inside</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Minute Always-Message Describe</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Two Standard-Do Than</t>
+          <t>When Less-Their Development</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Issue Together-Shake Suddenly</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>Play Nature-Record Allow</t>
+          <t>Republican Continue-Evening Those</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Order Five-State Baby</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Paper Camera-Why Budget</t>
         </is>
       </c>
     </row>
@@ -5519,17 +5439,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Green Religious-Have Full</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Sure Law-Camera Front</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Order Five-Offer Well</t>
+          <t>Sure Member-Heavy Concern</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Simple Training-Everything Color</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Chair Point-Board American</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Big Store-Summer Without</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Bag Girl-Within Least</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5554,17 +5484,37 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Concern Herself-Half Management</t>
+          <t>Raise Call-Cover Manage</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Anyone Might-Natural Might</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Drug Condition-Past Factor</t>
+          <t>Try Stand-Do Than</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Sense Follow-Yard Man</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>Law Employee-Hair Paper</t>
+          <t>Maintain South-Natural Wait</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Different Economy-Skill Support</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Position Oil-Source Decide</t>
         </is>
       </c>
     </row>
@@ -5576,57 +5526,67 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Minute Always-Source Laugh</t>
+          <t>Do Board-Those Nature</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Also Hold-Heavy Concern</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Different Economy-Product Hope</t>
+          <t>Wait Long-Reach Set</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Add Than-Yourself How</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Me Must-Have Full</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Whom Social-Third Million</t>
+          <t>Kind Blood-Specific Goal</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>After Morning-Bag Girl</t>
+          <t>Also Hold-Necessary Ask</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Rate Budget-Test Gun</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Officer Six-Natural Might</t>
+          <t>Health Start-Rate Billion</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Minute Citizen-Test Gun</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>East Well-Time Management</t>
+          <t>Candidate Home-Letter National</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Arm Nature-Morning Several</t>
+          <t>Half Pattern-See To</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>None Explain-Source Decide</t>
+          <t>Rate Leg-Education Point</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Region Begin-Reason During</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Simple Training-Rate Leg</t>
+          <t>Central Reason-Detail Person</t>
         </is>
       </c>
     </row>
@@ -5638,67 +5598,67 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Two Some-Sort Method</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Decision After-Board American</t>
+          <t>Particular Such-Anything Yes</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Add Than-Help Amount</t>
+          <t>Help Amount-Top Member</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Paper Camera-Resource Question</t>
+          <t>Maybe Modern-Gas Husband</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Back Radio-Design Degree</t>
+          <t>Drive Executive-Difference Throughout</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Growth Military-Always Protect</t>
+          <t>East Well-Reach Medical</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agency Truth-Cover Manage</t>
+          <t>Our Second-Past Factor</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Back Radio-Data Scene</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Rate Billion-Sea Administration</t>
+          <t>Short Property-Example Three</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Indeed Day-Somebody Product</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>Project Almost-Notice World</t>
+          <t>Wish Foot-Notice World</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Rate Through-Industry Police</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>At Could-That Leader</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Produce Early-Side Former</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>Seem How-Open First</t>
+          <t>Make Later-Reveal Today</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Serve Believe-Position Oil</t>
+          <t>Two Some-Fish Couple</t>
         </is>
       </c>
     </row>
@@ -5710,67 +5670,77 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Save Over-Different Them</t>
+          <t>Admit Produce-Still Race</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Anything Yes-Individual Could</t>
+          <t>There Because-Offer Well</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sense Follow-Really Seat</t>
+          <t>Night Today-Discover Head</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Involve Big-Sure Member</t>
+          <t>Opportunity Kind-Stock Measure</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Chair Point-Necessary Ask</t>
+          <t>Sure Law-Camera Front</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Ability Food-Source Laugh</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Especially Stuff-There Because</t>
+          <t>Indeed Day-Morning Several</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Education Point-Suddenly Inside</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Short Property-Behind Coach</t>
+          <t>Better Environmental-Own No</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Make Later-Town Feeling</t>
+          <t>Less Determine-Save Over</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Discover Head-Down Threat</t>
+          <t>National Talk-Free Financial</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>More Seat-Town Challenge</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Half Pattern-Less Determine</t>
+          <t>Policy Write-Trial Meeting</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>Anyone Might-Those Nature</t>
+          <t>Yes Other-Attorney Travel</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Half Management-Always Protect</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>More Seat-Town Challenge</t>
+          <t>Play Create-System New</t>
         </is>
       </c>
     </row>
@@ -5914,69 +5884,59 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Property Stop-Unit Budget</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Minute Always-Message Describe</t>
-        </is>
-      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Position Oil-Fill Dark</t>
+          <t>Can Control-Produce Early</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Expert Everyone-Past Factor</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Rate Through-Yard Man</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>There Because-Wish Foot</t>
+          <t>Evening Those-Difference Throughout</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Question Finally-Government Majority</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Sure Member-Piece Party</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Production Idea-Notice World</t>
+          <t>Different Economy-Sort Method</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Shake Suddenly-Once Bill</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>Central Reason-Matter Country</t>
+          <t>Agency Truth-Sign Learn</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Health Start-Discover Head</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Operation Scientist-Whom Social</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Still Race-Region Begin</t>
+          <t>Save Over-See To</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Back Radio-Gas Husband</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Law Employee-Prevent Read</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>Also Tax-Shake Second</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>Their Development-Try Stand</t>
+          <t>At Could-Seem How</t>
         </is>
       </c>
     </row>
@@ -5988,47 +5948,77 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Our Second-Expert Everyone</t>
+          <t>Order Five-Town Challenge</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Education Hit-Stock Measure</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Race Seven-Free Financial</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Attorney Travel-Always Protect</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Question Finally-Government Majority</t>
+          <t>Production Idea-Offer Well</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Impact Fire-Fill Dark</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Chair Point-Necessary Ask</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Draw Another-Why Budget</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Two Some-Skill Support</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Republican Continue-Simply Industry</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Education Hit-Hair Paper</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Less Determine-Somebody Product</t>
+          <t>Rate Billion-Down Threat</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Their West-Side Former</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Sure Law-Specific Goal</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Stock Measure-Resource Question</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Different Our-Series Recently</t>
+          <t>Particular Such-Individual Could</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Involve Big-Wait Long</t>
+          <t>Involve Big-Piece Party</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Opportunity Kind-Prevent Read</t>
+          <t>Heavy Concern-Sound Television</t>
         </is>
       </c>
     </row>
@@ -6040,62 +6030,67 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Agency Truth-Back Radio</t>
+          <t>Letter National-Detail Person</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Can Control-Source Decide</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Draw Another-Law Employee</t>
+          <t>Candidate Home-Matter Country</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Arm Nature-Reveal Today</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>System Practice-Data Scene</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Easy Exist-Sort Method</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Yes Other-Bag Girl</t>
+          <t>Rate Budget-Have Full</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Less Determine-Town Feeling</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Admit Produce-Individual Could</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>Night Today-Time Management</t>
+          <t>Admit Produce-Try Stand</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>National Talk-Kind Blood</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Impact Fire-Their West</t>
+          <t>Company Car-Drug Condition</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Beyond Above-Own No</t>
+          <t>Product Hope-Effort Rather</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>East Well-Summer Without</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Two Standard-Do Than</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>None Explain-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>Add Than-Natural Wait</t>
+          <t>Anyone Might-Officer Six</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Simple Training-Do Board</t>
         </is>
       </c>
     </row>
@@ -6107,72 +6102,62 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rate Leg-Everything Color</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Policy Write-Side Former</t>
+          <t>Policy Write-Position Oil</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Play Create-Source Laugh</t>
+          <t>Sure Member-Reach Set</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Save Over-Reveal Today</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Health Start-Sea Administration</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>After Morning-Within Least</t>
+          <t>Minute Always-Sense Follow</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Republican Continue-Past Factor</t>
+          <t>Maintain South-Top Member</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Detail Person-Me Must</t>
+          <t>Good Cup-Race Seven</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Reach Medical-Discover Head</t>
+          <t>Education Point-Suddenly Inside</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Behind Coach-Example Three</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Evening Those-Simply Industry</t>
+          <t>Yourself How-Audience Health</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Bill Minute-Good Cup</t>
+          <t>Region Begin-Anything Yes</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Two Some-Effort Rather</t>
+          <t>Half Pattern-Indeed Day</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Source Laugh-Really Seat</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>Sense Follow-Camera Recently</t>
+          <t>Series Recently-Natural Might</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Data Scene-Cover Manage</t>
         </is>
       </c>
     </row>
@@ -6184,67 +6169,62 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Morning Several-See To</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Green Religious-Test Gun</t>
+          <t>That Leader-Easy Exist</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>That Leader-Fish Couple</t>
+          <t>Different Our-Those Nature</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Clearly Human-Sign Learn</t>
+          <t>Beyond Above-Third Million</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Better Environmental-Play Nature</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Drive Executive-Difference Throughout</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Particular Such-Anything Yes</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Company Car-Drug Condition</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>State Baby-Town Challenge</t>
+          <t>Message Describe-Yard Man</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Clearly Human-Design Degree</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Necessary Ask-Reach Set</t>
+          <t>Decision After-Board American</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Short North-Behind Coach</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Do Board-Natural Might</t>
+          <t>Also Tax-Growth Military</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Bill Minute-Camera Front</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>Rate Billion-Summer Without</t>
+          <t>Whom Social-Own No</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Issue Together-Far Word</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>Maintain South-Top Member</t>
+          <t>Ever Material-Example Three</t>
         </is>
       </c>
     </row>
@@ -6254,74 +6234,79 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>National Talk-Look Six</t>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Property Stop-Unit Budget</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Heavy Concern-Board American</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Ever Material-Audience Health</t>
+          <t>System New-Camera Recently</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Green Religious-Minute Citizen</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Bag Girl-Concern Herself</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Letter National-Rate Budget</t>
+          <t>Serve Believe-None Explain</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Simple Training-Those Nature</t>
+          <t>Condition Way-Night Today</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Anyone Might-Education Point</t>
+          <t>Especially Stuff-Lot Recent</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Concern Herself-Growth Military</t>
+          <t>Yes Other-Shake Second</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Kind Blood-Camera Front</t>
+          <t>Big Store-Sea Administration</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Maybe Modern-Cover Manage</t>
+          <t>Morning Several-Different Them</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Product Hope-Open First</t>
+          <t>After Morning-Always Protect</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Shake Suddenly-Play Nature</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Industry Police-System New</t>
+          <t>There Because-More Seat</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Arm Nature-Different Them</t>
+          <t>System Practice-Week Board</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>Paper Camera-Me Next</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>Record Allow-Far Word</t>
+          <t>Once Bill-Record Allow</t>
         </is>
       </c>
     </row>
@@ -6465,19 +6450,24 @@
           <t>17-18</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Somebody Product-Different Them</t>
+        </is>
+      </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Education Hit-Hair Paper</t>
+          <t>Reach Medical-Time Management</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Night Today-Reach Medical</t>
+          <t>Minute Always-Play Create</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Bag Girl-Within Least</t>
+          <t>At Could-Fish Couple</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6502,47 +6492,52 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Make Later-Different Them</t>
+          <t>Raise Call-System Practice</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Short Property-Maintain South</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Chair Point-Wait Long</t>
+          <t>Also Hold-Board American</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Beyond Above-Whom Social</t>
+          <t>Back Radio-Week Board</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Lot Recent-Offer Well</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Bill Minute-Sure Law</t>
+          <t>Matter Country-Minute Citizen</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Two Standard-Reason During</t>
+          <t>Clearly Human-Maybe Modern</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Stock Measure-Prevent Read</t>
+          <t>Help Amount-Audience Health</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>Operation Scientist-Far Word</t>
+          <t>State Baby-Production Idea</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Expert Everyone-Past Factor</t>
+          <t>Question Finally-Past Factor</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Natural Wait-Top Member</t>
         </is>
       </c>
     </row>
@@ -6554,12 +6549,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>More Seat-Project Almost</t>
+          <t>Still Race-Their Development</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Short Property-Example Three</t>
+          <t>Ability Food-Camera Recently</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6584,52 +6579,37 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Agency Truth-Clearly Human</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>Yourself How-Help Amount</t>
+          <t>East Well-Down Threat</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Within Least-Shake Second</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Series Recently-Those Nature</t>
+          <t>Ever Material-Yourself How</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Ability Food-Rate Through</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>Everything Color-Natural Might</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>Short North-Ever Material</t>
+          <t>Particular Such-Reason During</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Half Pattern-Somebody Product</t>
+          <t>Hair Paper-Prevent Read</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>Why Budget-Resource Question</t>
+          <t>Issue Together-Whom Social</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Me Next-Opportunity Kind</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>Policy Write-Serve Believe</t>
+          <t>Play Nature-Record Allow</t>
         </is>
       </c>
     </row>
@@ -6641,22 +6621,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Detail Person-Green Religious</t>
+          <t>Bill Minute-Kind Blood</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Decision After-Reach Set</t>
+          <t>Sense Follow-Rate Through</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>National Talk-Kind Blood</t>
+          <t>Impact Fire-Their West</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Matter Country-Have Full</t>
+          <t>Piece Party-Reach Set</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6681,32 +6661,27 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Anyone Might-Suddenly Inside</t>
+          <t>Admit Produce-Anything Yes</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>State Baby-Notice World</t>
+          <t>Letter National-Rate Budget</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Candidate Home-Minute Citizen</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>Maybe Modern-Sign Learn</t>
+          <t>Detail Person-Me Must</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Raise Call-Design Degree</t>
+          <t>When Less-Do Than</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Attorney Travel-Growth Military</t>
+          <t>Lot Recent-Offer Well</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -6714,24 +6689,9 @@
           <t>Half Management-Road Involve</t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>Fish Couple-Effort Rather</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>Produce Early-Source Decide</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>Involve Big-Necessary Ask</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>Education Point-Do Board</t>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Our Second-Difference Throughout</t>
         </is>
       </c>
     </row>
@@ -6741,19 +6701,24 @@
           <t>20-21</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Position Oil-Trial Meeting</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Order Five-There Because</t>
+          <t>Sure Member-Wait Long</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Especially Stuff-Production Idea</t>
+          <t>Specific Goal-Unit Budget</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Different Economy-Sort Method</t>
+          <t>Necessary Ask-Sound Television</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6776,49 +6741,54 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Indeed Day-Town Feeling</t>
-        </is>
-      </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Company Car-Republican Continue</t>
+          <t>Project Almost-Notice World</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Attorney Travel-Concern Herself</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Issue Together-Own No</t>
+          <t>Third Million-Once Bill</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Evening Those-Drug Condition</t>
+          <t>Arm Nature-See To</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Specific Goal-Look Six</t>
+          <t>Serve Believe-Produce Early</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Do Board-Everything Color</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Also Tax-Always Protect</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Minute Always-Really Seat</t>
+          <t>Education Point-Series Recently</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>Also Hold-Sound Television</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>Law Employee-Paper Camera</t>
+          <t>Seem How-Open First</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Seem How-Product Hope</t>
+          <t>Me Next-Opportunity Kind</t>
         </is>
       </c>
     </row>
@@ -6830,22 +6800,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Morning Several-Save Over</t>
+          <t>Test Gun-Have Full</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Piece Party-Board American</t>
+          <t>Candidate Home-Central Reason</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Particular Such-Do Than</t>
+          <t>Company Car-Drive Executive</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Gas Husband-Week Board</t>
+          <t>Draw Another-Law Employee</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6868,44 +6838,49 @@
           <t>X</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Region Begin-Try Stand</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Condition Way-Time Management</t>
+          <t>Condition Way-Summer Without</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Add Than-Example Three</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>East Well-Health Start</t>
+          <t>Involve Big-Decision After</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Officer Six-Suddenly Inside</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>System Practice-Cover Manage</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>When Less-Anything Yes</t>
+          <t>Two Standard-Individual Could</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Rate Billion-Down Threat</t>
+          <t>Industry Police-System New</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Sense Follow-Play Create</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>Add Than-Audience Health</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>Camera Front-Free Financial</t>
+          <t>Better Environmental-Operation Scientist</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Shake Suddenly-Far Word</t>
         </is>
       </c>
     </row>
@@ -6917,12 +6892,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Skill Support-Open First</t>
+          <t>Good Cup-Free Financial</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>None Explain-Side Former</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sea Administration-Summer Without</t>
+          <t>Easy Exist-Effort Rather</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6945,44 +6925,54 @@
           <t>X</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Make Later-Indeed Day</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Simple Training-Natural Might</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Officer Six-Rate Leg</t>
+          <t>Sure Law-Look Six</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>After Morning-Always Protect</t>
+          <t>Anyone Might-Rate Leg</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Can Control-Source Decide</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>That Leader-Easy Exist</t>
+          <t>Especially Stuff-Wish Foot</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Still Race-Their Development</t>
+          <t>Order Five-More Seat</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>Third Million-Record Allow</t>
+          <t>Why Budget-Stock Measure</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Admit Produce-Try Stand</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>Impact Fire-None Explain</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>At Could-Two Some</t>
+          <t>Paper Camera-Resource Question</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Chair Point-Heavy Concern</t>
         </is>
       </c>
     </row>
@@ -7128,72 +7118,77 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Involve Big-Heavy Concern</t>
+          <t>Short Property-Audience Health</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Property Stop-Kind Blood</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Short Property-Maintain South</t>
+          <t>System Practice-Gas Husband</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Can Control-Their West</t>
+          <t>Industry Police-Really Seat</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Paper Camera-Me Next</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Better Environmental-Record Allow</t>
+          <t>Central Reason-Me Must</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Condition Way-Rate Billion</t>
+          <t>Big Store-Time Management</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Back Radio-Gas Husband</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Beyond Above-Play Nature</t>
+          <t>Arm Nature-Town Feeling</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Short North-Yourself How</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Discover Head-Down Threat</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Make Later-Save Over</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Green Religious-Me Must</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>Order Five-Production Idea</t>
+          <t>Design Degree-Cover Manage</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>State Baby-Wish Foot</t>
+          <t>Order Five-Project Almost</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Attorney Travel-Road Involve</t>
+          <t>Policy Write-Fill Dark</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>Natural Wait-Example Three</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>Week Board-Cover Manage</t>
+          <t>Minute Always-Rate Through</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Can Control-Impact Fire</t>
         </is>
       </c>
     </row>
@@ -7203,49 +7198,59 @@
           <t>18-19</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>National Talk-Unit Budget</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Also Hold-Sure Member</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Especially Stuff-Town Challenge</t>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Property Stop-Sure Law</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Their West-Serve Believe</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Specific Goal-Camera Front</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Concern Herself-Shake Second</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Ability Food-Message Describe</t>
+          <t>Health Start-Summer Without</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Their Development-Particular Such</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Wish Foot-Town Challenge</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Republican Continue-Government Majority</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>At Could-Two Some</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Sort Method-Product Hope</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Yes Other-Always Protect</t>
+          <t>Different Our-Everything Color</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Top Member-Audience Health</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>Simple Training-Different Our</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>Question Finally-Past Factor</t>
+          <t>Morning Several-Reveal Today</t>
         </is>
       </c>
     </row>
@@ -7257,87 +7262,77 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>When Less-Particular Such</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Company Car-Evening Those</t>
+          <t>Rate Budget-Detail Person</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Clearly Human-Raise Call</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Me Next-Stock Measure</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Also Tax-Growth Military</t>
+          <t>Drive Executive-Our Second</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Industry Police-Yard Man</t>
+          <t>Evening Those-Past Factor</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>System New-Source Laugh</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Chair Point-Sound Television</t>
+          <t>Sign Learn-Week Board</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Less Determine-Town Feeling</t>
+          <t>Kind Blood-Race Seven</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Candidate Home-Central Reason</t>
+          <t>Admit Produce-Region Begin</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Those Nature-Natural Might</t>
+          <t>Rate Leg-Natural Might</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Detail Person-Minute Citizen</t>
+          <t>Production Idea-Notice World</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Notice World-Offer Well</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>Product Hope-Effort Rather</t>
+          <t>Side Former-Source Decide</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Shake Suddenly-Far Word</t>
+          <t>Easy Exist-Fish Couple</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>Policy Write-Fill Dark</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>Anyone Might-Rate Leg</t>
+          <t>Rate Billion-Sea Administration</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>Maintain South-Behind Coach</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>Series Recently-Suddenly Inside</t>
+          <t>Different Economy-Seem How</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>Also Hold-Sure Member</t>
         </is>
       </c>
     </row>
@@ -7347,74 +7342,54 @@
           <t>20-21</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Half Pattern-Less Determine</t>
+        </is>
+      </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Rate Budget-Have Full</t>
+          <t>Piece Party-Decision After</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Their Development-Do Than</t>
+          <t>Chair Point-Involve Big</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Rate Through-Really Seat</t>
+          <t>Especially Stuff-State Baby</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Third Million-Once Bill</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Sea Administration-Discover Head</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Lot Recent-Project Almost</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Agency Truth-System Practice</t>
+          <t>That Leader-Skill Support</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Wait Long-Decision After</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Drive Executive-Expert Everyone</t>
+          <t>Officer Six-Do Board</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>At Could-Skill Support</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>Ever Material-Help Amount</t>
-        </is>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>Education Hit-Prevent Read</t>
+          <t>Bill Minute-Unit Budget</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Region Begin-Reason During</t>
+          <t>Add Than-Top Member</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>Position Oil-Side Former</t>
+          <t>Yes Other-Growth Military</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>Concern Herself-Shake Second</t>
         </is>
       </c>
     </row>
@@ -7424,59 +7399,59 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Arm Nature-Save Over</t>
-        </is>
-      </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Officer Six-Everything Color</t>
+          <t>Source Laugh-Camera Recently</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Somebody Product-Different Them</t>
+          <t>Message Describe-Play Create</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Hair Paper-Paper Camera</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Our Second-Difference Throughout</t>
+          <t>System New-Yard Man</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Expert Everyone-Difference Throughout</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Drug Condition-Simply Industry</t>
+          <t>Beyond Above-Once Bill</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Add Than-Behind Coach</t>
+          <t>Heavy Concern-Board American</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Design Degree-Data Scene</t>
+          <t>Wait Long-Sound Television</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>National Talk-Look Six</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Opportunity Kind-Why Budget</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Half Pattern-See To</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>Serve Believe-Trial Meeting</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>Easy Exist-Seem How</t>
+          <t>Within Least-Always Protect</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Issue Together-Own No</t>
         </is>
       </c>
     </row>
@@ -7486,59 +7461,69 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Make Later-Reveal Today</t>
-        </is>
-      </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Republican Continue-Government Majority</t>
+          <t>Series Recently-Those Nature</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Camera Front-Race Seven</t>
+          <t>None Explain-Trial Meeting</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Night Today-Summer Without</t>
+          <t>Night Today-Reach Medical</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Question Finally-Simply Industry</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Candidate Home-Green Religious</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Free Financial-Look Six</t>
+          <t>Natural Wait-Example Three</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Good Cup-Specific Goal</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Try Stand-Individual Could</t>
+          <t>After Morning-Half Management</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Draw Another-Hair Paper</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Attorney Travel-Also Tax</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Clearly Human-Raise Call</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Letter National-Matter Country</t>
+          <t>Bag Girl-Road Involve</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Agency Truth-Data Scene</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Different Them-See To</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>Play Create-Camera Recently</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>Draw Another-Opportunity Kind</t>
+          <t>Education Hit-Prevent Read</t>
         </is>
       </c>
     </row>
@@ -7682,44 +7667,64 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Question Finally-Evening Those</t>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Gas Husband-Cover Manage</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Necessary Ask-Heavy Concern</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Order Five-Project Almost</t>
+          <t>Play Create-Really Seat</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Better Environmental-Far Word</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Officer Six-Do Board</t>
+          <t>Rate Through-Yard Man</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Reach Medical-Rate Billion</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Half Pattern-Town Feeling</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Big Store-Night Today</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Wait Long-Sound Television</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>Operation Scientist-Record Allow</t>
+          <t>Operation Scientist-Shake Suddenly</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Whom Social-Play Nature</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Policy Write-Side Former</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>Ability Food-Really Seat</t>
-        </is>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>Two Standard-Particular Such</t>
+          <t>Their West-Source Decide</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Law Employee-Stock Measure</t>
         </is>
       </c>
     </row>
@@ -7731,62 +7736,67 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Company Car-Government Majority</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Matter Country-Minute Citizen</t>
+          <t>Lot Recent-Town Challenge</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Me Next-Resource Question</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Issue Together-Once Bill</t>
+          <t>Issue Together-Third Million</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Necessary Ask-Decision After</t>
+          <t>Message Describe-Industry Police</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Maybe Modern-Gas Husband</t>
+          <t>Yes Other-Half Management</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Impact Fire-Trial Meeting</t>
+          <t>East Well-Sea Administration</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Bill Minute-Race Seven</t>
+          <t>Detail Person-Have Full</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Natural Wait-Short North</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Minute Always-Play Create</t>
+          <t>Specific Goal-Free Financial</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Sure Law-Unit Budget</t>
-        </is>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>Education Point-Those Nature</t>
+          <t>Me Must-Test Gun</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Also Hold-Chair Point</t>
-        </is>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>Big Store-Condition Way</t>
+          <t>Different Economy-Effort Rather</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Education Hit-Opportunity Kind</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Once Bill-Far Word</t>
         </is>
       </c>
     </row>
@@ -7798,72 +7808,72 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Still Race-Anything Yes</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Rate Leg-Different Our</t>
+          <t>Raise Call-Back Radio</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Candidate Home-Minute Citizen</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Night Today-Discover Head</t>
+          <t>Design Degree-Sign Learn</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Half Management-Shake Second</t>
+          <t>Suddenly Inside-Natural Might</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Clearly Human-Week Board</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Their West-Produce Early</t>
+          <t>Government Majority-Past Factor</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Health Start-Rate Billion</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Simple Training-Everything Color</t>
+          <t>Especially Stuff-Order Five</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>System Practice-Design Degree</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>Maintain South-Ever Material</t>
+          <t>Short Property-Top Member</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Especially Stuff-Wish Foot</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>Sort Method-Skill Support</t>
+          <t>Kind Blood-Unit Budget</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Do Than-Anything Yes</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Letter National-Central Reason</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Different Economy-Fish Couple</t>
+          <t>Simple Training-Different Our</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>Piece Party-Reach Set</t>
+          <t>None Explain-Produce Early</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>Bag Girl-Growth Military</t>
+          <t>Republican Continue-Our Second</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7885,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>More Seat-Production Idea</t>
+          <t>Ability Food-Minute Always</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7885,72 +7895,52 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Sense Follow-Industry Police</t>
+          <t>Company Car-Question Finally</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Two Some-That Leader</t>
+          <t>Their Development-Individual Could</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Our Second-Past Factor</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Detail Person-Have Full</t>
+          <t>Attorney Travel-Within Least</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Drive Executive-Republican Continue</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>There Because-Notice World</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>After Morning-Road Involve</t>
+          <t>Notice World-Offer Well</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Behind Coach-Yourself How</t>
+          <t>Education Point-Do Board</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>Arm Nature-Somebody Product</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>Can Control-None Explain</t>
+          <t>Less Determine-Morning Several</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Rate Budget-Green Religious</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>Education Hit-Resource Question</t>
-        </is>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>Town Feeling-Different Them</t>
+          <t>Good Cup-Look Six</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>Admit Produce-Reason During</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>Short Property-Audience Health</t>
+          <t>Officer Six-Rate Leg</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>Everything Color-Series Recently</t>
         </is>
       </c>
     </row>
@@ -7960,59 +7950,54 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Effort Rather-Open First</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Sure Member-Board American</t>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Maybe Modern-System Practice</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Easy Exist-Open First</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Better Environmental-Beyond Above</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Draw Another-Prevent Read</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Expert Everyone-Difference Throughout</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Half Pattern-Morning Several</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>Sign Learn-Week Board</t>
+          <t>Condition Way-Health Start</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>East Well-Down Threat</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>Lot Recent-State Baby</t>
+          <t>Can Control-Fill Dark</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>National Talk-Specific Goal</t>
+          <t>More Seat-Wish Foot</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Fish Couple-Skill Support</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Whom Social-Own No</t>
+          <t>Make Later-Different Them</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>Property Stop-Free Financial</t>
+          <t>Anyone Might-Those Nature</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Sense Follow-System New</t>
         </is>
       </c>
     </row>
@@ -8024,62 +8009,67 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Me Next-Why Budget</t>
+          <t>Maintain South-Help Amount</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Source Laugh-Yard Man</t>
+          <t>Still Race-Particular Such</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Reach Medical-Summer Without</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Try Stand-Do Than</t>
+          <t>Two Some-Product Hope</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Short North-Example Three</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Message Describe-Rate Through</t>
+          <t>Somebody Product-Reveal Today</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Decision After-Reach Set</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Piece Party-Sound Television</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Kind Blood-Look Six</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Sea Administration-Time Management</t>
+          <t>Try Stand-Reason During</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Make Later-Indeed Day</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>Within Least-Always Protect</t>
+          <t>Add Than-Ever Material</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Own No-Record Allow</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Less Determine-See To</t>
+          <t>Indeed Day-See To</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Drive Executive-Simply Industry</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Impact Fire-Position Oil</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>Fill Dark-Side Former</t>
+          <t>When Less-Region Begin</t>
         </is>
       </c>
     </row>
@@ -8223,64 +8213,69 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Me Next-Resource Question</t>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Specific Goal-Race Seven</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Rate Through-Camera Recently</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Condition Way-Reach Medical</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Education Hit-Me Next</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Maybe Modern-Week Board</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Difference Throughout-Past Factor</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Make Later-Save Over</t>
+          <t>Their Development-Reason During</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Third Million-Far Word</t>
+          <t>Operation Scientist-Third Million</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Yourself How-Top Member</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>Our Second-Simply Industry</t>
+          <t>Own No-Play Nature</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Back Radio-Cover Manage</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>Easy Exist-Open First</t>
+          <t>Sea Administration-Down Threat</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Raise Call-System Practice</t>
+          <t>East Well-Time Management</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>Good Cup-Look Six</t>
-        </is>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>Morning Several-Reveal Today</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>Industry Police-Camera Recently</t>
+          <t>That Leader-Seem How</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Operation Scientist-Own No</t>
+          <t>Better Environmental-Far Word</t>
         </is>
       </c>
     </row>
@@ -8292,57 +8287,42 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Impact Fire-Policy Write</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Two Some-Product Hope</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Shake Suddenly-Play Nature</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Sense Follow-Rate Through</t>
+          <t>Sure Law-Free Financial</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Rate Billion-Discover Head</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Gas Husband-Data Scene</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Education Point-Series Recently</t>
+          <t>Clearly Human-Sign Learn</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Central Reason-Have Full</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>Yes Other-Growth Military</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>When Less-Do Than</t>
+          <t>Issue Together-Once Bill</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Arm Nature-Save Over</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Design Degree-Data Scene</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Question Finally-Republican Continue</t>
+          <t>Make Later-Morning Several</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Within Least-Shake Second</t>
+          <t>Republican Continue-Expert Everyone</t>
         </is>
       </c>
     </row>
@@ -8354,42 +8334,37 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Serve Believe-Side Former</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Minute Always-System New</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Chair Point-Piece Party</t>
+          <t>Also Hold-Reach Set</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Also Hold-Decision After</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Position Oil-Trial Meeting</t>
+          <t>Night Today-Summer Without</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Sure Law-Race Seven</t>
+          <t>Short North-Top Member</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Yourself How-Example Three</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>There Because-Offer Well</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>Message Describe-Source Laugh</t>
+          <t>Admit Produce-When Less</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Minute Citizen-Have Full</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Involve Big-Wait Long</t>
         </is>
       </c>
     </row>
@@ -8399,49 +8374,44 @@
           <t>20-21</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Candidate Home-Me Must</t>
-        </is>
-      </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Heavy Concern-Reach Set</t>
+          <t>National Talk-Property Stop</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Why Budget-Resource Question</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Behind Coach-Ever Material</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>That Leader-Skill Support</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Big Store-Sea Administration</t>
+          <t>Attorney Travel-Road Involve</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>After Morning-Concern Herself</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Wish Foot-Notice World</t>
+          <t>Agency Truth-Back Radio</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Do Board-Suddenly Inside</t>
-        </is>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>Somebody Product-See To</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>Add Than-Short North</t>
+          <t>Different Economy-Open First</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Officer Six-Natural Might</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>Bag Girl-Shake Second</t>
         </is>
       </c>
     </row>
@@ -8453,32 +8423,67 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Necessary Ask-Wait Long</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Expert Everyone-Drug Condition</t>
+          <t>Can Control-Serve Believe</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Source Decide-Trial Meeting</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Fish Couple-Product Hope</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>None Explain-Fill Dark</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Draw Another-Stock Measure</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Camera Front-Unit Budget</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Sound Television-Board American</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>Draw Another-Paper Camera</t>
-        </is>
-      </c>
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>Admit Produce-Anything Yes</t>
-        </is>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>Two Standard-Individual Could</t>
+          <t>Sure Member-Decision After</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Region Begin-Particular Such</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Project Almost-Town Challenge</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Candidate Home-Test Gun</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Whom Social-Record Allow</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Anything Yes-Individual Could</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Piece Party-Board American</t>
         </is>
       </c>
     </row>
@@ -8488,54 +8493,49 @@
           <t>22-23</t>
         </is>
       </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Natural Wait-Audience Health</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Government Majority-Past Factor</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Maybe Modern-Week Board</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Letter National-Minute Citizen</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Attorney Travel-Bag Girl</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Short Property-Help Amount</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>Natural Wait-Behind Coach</t>
+          <t>Sort Method-Skill Support</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Yes Other-Always Protect</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Simple Training-Suddenly Inside</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>After Morning-Growth Military</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Sense Follow-Message Describe</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>Opportunity Kind-Why Budget</t>
+          <t>Lot Recent-More Seat</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Also Tax-Always Protect</t>
-        </is>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>Beyond Above-Issue Together</t>
+          <t>Drive Executive-Government Majority</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>Anyone Might-Everything Color</t>
+          <t>Concern Herself-Within Least</t>
         </is>
       </c>
     </row>
@@ -8681,42 +8681,37 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Our Second-Government Majority</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Lot Recent-Notice World</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>Short North-Behind Coach</t>
+          <t>Sure Law-Race Seven</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Impact Fire-None Explain</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>More Seat-Notice World</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Half Pattern-Morning Several</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Big Store-Reach Medical</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Operation Scientist-Third Million</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>Bill Minute-Kind Blood</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>Ability Food-System New</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>Reach Medical-Sea Administration</t>
-        </is>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>Short Property-Top Member</t>
+          <t>Yourself How-Help Amount</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>Operation Scientist-Far Word</t>
         </is>
       </c>
     </row>
@@ -8728,27 +8723,42 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Play Create-Yard Man</t>
+          <t>Company Car-Republican Continue</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Serve Believe-Fill Dark</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>Officer Six-Different Our</t>
+          <t>Half Management-Growth Military</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Two Some-Open First</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Sea Administration-Summer Without</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Property Stop-Specific Goal</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Good Cup-Kind Blood</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>Different Economy-Open First</t>
+          <t>Attorney Travel-Shake Second</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>Yourself How-Example Three</t>
+          <t>Short Property-Behind Coach</t>
         </is>
       </c>
     </row>
@@ -8758,39 +8768,34 @@
           <t>19-20</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Time Management-Down Threat</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Project Almost-Offer Well</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Good Cup-Free Financial</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Growth Military-Within Least</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>Anyone Might-Series Recently</t>
-        </is>
-      </c>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>Arm Nature-Less Determine</t>
-        </is>
-      </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>Also Hold-Necessary Ask</t>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Order Five-Lot Recent</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Law Employee-Opportunity Kind</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Different Economy-That Leader</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Education Point-Natural Might</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Indeed Day-Different Them</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>Beyond Above-Own No</t>
         </is>
       </c>
     </row>
@@ -8802,47 +8807,32 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Yes Other-Half Management</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Whom Social-Once Bill</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Back Radio-Week Board</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Drive Executive-Drug Condition</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Big Store-Night Today</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>East Well-Rate Billion</t>
-        </is>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>Try Stand-Particular Such</t>
-        </is>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>Minute Always-Camera Recently</t>
-        </is>
-      </c>
-      <c r="U126" t="inlineStr">
-        <is>
-          <t>Republican Continue-Simply Industry</t>
+          <t>Drive Executive-Expert Everyone</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Better Environmental-Play Nature</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Series Recently-Suddenly Inside</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Simple Training-Those Nature</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>Officer Six-Everything Color</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Yes Other-Road Involve</t>
         </is>
       </c>
     </row>
@@ -8852,44 +8842,44 @@
           <t>21-22</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Admit Produce-Do Than</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Maintain South-Natural Wait</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Still Race-Reason During</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>Simple Training-Do Board</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>Raise Call-Maybe Modern</t>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Wish Foot-Project Almost</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Ability Food-Industry Police</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Somebody Product-See To</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Anyone Might-Different Our</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>Rate Leg-Education Point</t>
+          <t>Still Race-Region Begin</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>Beyond Above-Far Word</t>
+          <t>Camera Front-Look Six</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>Really Seat-Camera Recently</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Piece Party-Decision After</t>
+          <t>Sound Television-Reach Set</t>
         </is>
       </c>
     </row>
@@ -8899,24 +8889,34 @@
           <t>22-23</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Order Five-More Seat</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Town Feeling-Somebody Product</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Bag Girl-Shake Second</t>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Easy Exist-Skill Support</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>When Less-Reason During</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Me Next-Why Budget</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Rate Through-Play Create</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Maybe Modern-Back Radio</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>Condition Way-Health Start</t>
+          <t>Maintain South-Short North</t>
         </is>
       </c>
     </row>
